--- a/test_物件管理/test_物件管理車室一覧.xlsx
+++ b/test_物件管理/test_物件管理車室一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6355" uniqueCount="522">
   <si>
     <t>URL:</t>
   </si>
@@ -1502,18 +1502,6 @@
   </si>
   <si>
     <t>保存</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加：数字格式</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHOT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1776,9 +1764,6 @@
   </si>
   <si>
     <t>147</t>
-  </si>
-  <si>
-    <t>9999-12-31 23:59:59.000000</t>
   </si>
   <si>
     <t>158</t>
@@ -1909,12 +1894,6 @@
     </r>
   </si>
   <si>
-    <t>/html/body/main/div/div/div/div/form/div/button</t>
-  </si>
-  <si>
-    <t>車室删除后</t>
-  </si>
-  <si>
     <t>EXPECT_003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1984,6 +1963,14 @@
   </si>
   <si>
     <t>SELECT id,created_date,updated_date,is_deleted,deleted_date,category,key_count,comment,parking_position_id,password,model_no,reissue_cost FROM ap_parking_position_key WHERE 1=1  LIMIT 100</t>
+  </si>
+  <si>
+    <t>SHOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLICK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2306,7 +2293,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -2334,8 +2321,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2617,21 +2610,47 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="ハイパーリンク 2" xfId="11"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="18"/>
     <cellStyle name="標準 2" xfId="7"/>
     <cellStyle name="標準 2 2" xfId="8"/>
+    <cellStyle name="標準 2 2 2" xfId="16"/>
     <cellStyle name="標準 2 3" xfId="12"/>
     <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="9"/>
     <cellStyle name="標準 26" xfId="1"/>
     <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 3 2" xfId="14"/>
     <cellStyle name="標準 4" xfId="10"/>
+    <cellStyle name="標準 4 2" xfId="17"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="13"/>
     <cellStyle name="桁区切り 2" xfId="6"/>
+    <cellStyle name="桁区切り 2 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5535,7 +5554,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5545,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C1" s="84"/>
       <c r="D1" s="84"/>
@@ -5567,10 +5586,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D4" s="100"/>
     </row>
@@ -5579,10 +5598,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D5" s="100"/>
     </row>
@@ -5597,13 +5616,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
@@ -5611,7 +5630,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C8" s="99">
         <v>147</v>
@@ -5625,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C9" s="99">
         <v>258</v>
@@ -5639,13 +5658,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="101" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C10" s="99">
         <v>369</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
@@ -5653,7 +5672,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C11" s="99">
         <v>1010</v>
@@ -5682,20 +5701,20 @@
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="91" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C16" s="84"/>
       <c r="D16" s="84"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="91" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C17" s="84"/>
       <c r="D17" s="84"/>
@@ -5729,8 +5748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5741,12 +5760,12 @@
         <v>88</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B3" s="96" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C3" s="97" t="s">
         <v>89</v>
@@ -5757,7 +5776,7 @@
     </row>
     <row r="4" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>21</v>
@@ -5835,13 +5854,13 @@
         <v>209</v>
       </c>
       <c r="AB4" s="86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC4" s="86" t="s">
         <v>211</v>
       </c>
       <c r="AD4" s="86" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AE4" s="86" t="s">
         <v>270</v>
@@ -5855,12 +5874,12 @@
     </row>
     <row r="5" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B5" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="88" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="120" t="s">
         <v>239</v>
       </c>
       <c r="E5" s="88" t="s">
@@ -5870,7 +5889,7 @@
         <v>264</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H5" s="88" t="s">
         <v>324</v>
@@ -5953,40 +5972,40 @@
     </row>
     <row r="6" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B6" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="C6" s="88" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>475</v>
+      </c>
+      <c r="I6" s="88" t="s">
+        <v>474</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="H6" s="88" t="s">
+      <c r="M6" s="88" t="s">
         <v>479</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="J6" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="K6" s="88" t="s">
-        <v>481</v>
-      </c>
-      <c r="L6" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>483</v>
       </c>
       <c r="N6" s="88" t="s">
         <v>328</v>
@@ -6037,7 +6056,7 @@
         <v>264</v>
       </c>
       <c r="AD6" s="88" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AE6" s="88" t="s">
         <v>153</v>
@@ -6053,38 +6072,38 @@
       <c r="B7" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>475</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>474</v>
+      </c>
+      <c r="J7" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="L7" s="88" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>424</v>
-      </c>
-      <c r="H7" s="88" t="s">
+      <c r="M7" s="88" t="s">
         <v>479</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="J7" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="K7" s="88" t="s">
-        <v>481</v>
-      </c>
-      <c r="L7" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>483</v>
       </c>
       <c r="N7" s="88" t="s">
         <v>340</v>
@@ -6135,7 +6154,7 @@
         <v>264</v>
       </c>
       <c r="AD7" s="88" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AE7" s="88" t="s">
         <v>153</v>
@@ -6149,12 +6168,12 @@
     </row>
     <row r="8" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="120" t="s">
         <v>239</v>
       </c>
       <c r="E8" s="88" t="s">
@@ -6164,7 +6183,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H8" s="88" t="s">
         <v>350</v>
@@ -6250,10 +6269,10 @@
       <c r="B9" s="88" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="88" t="s">
+      <c r="C9" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="120" t="s">
         <v>239</v>
       </c>
       <c r="E9" s="88" t="s">
@@ -6263,7 +6282,7 @@
         <v>264</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>214</v>
@@ -6473,7 +6492,7 @@
     <row r="12" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="95"/>
       <c r="B12" s="96" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C12" s="97" t="s">
         <v>89</v>
@@ -6891,7 +6910,7 @@
         <v>264</v>
       </c>
       <c r="AD14" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AE14" s="88" t="s">
         <v>239</v>
@@ -7020,7 +7039,7 @@
         <v>264</v>
       </c>
       <c r="BU14" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV14" s="88">
         <v>1</v>
@@ -7242,7 +7261,7 @@
         <v>264</v>
       </c>
       <c r="BU15" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV15" s="88">
         <v>3</v>
@@ -7350,7 +7369,7 @@
         <v>79</v>
       </c>
       <c r="AI16" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ16" s="88">
         <v>1</v>
@@ -7464,7 +7483,7 @@
         <v>264</v>
       </c>
       <c r="BU16" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV16" s="88">
         <v>1</v>
@@ -7572,7 +7591,7 @@
         <v>79</v>
       </c>
       <c r="AI17" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ17" s="88">
         <v>1</v>
@@ -7686,7 +7705,7 @@
         <v>264</v>
       </c>
       <c r="BU17" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV17" s="88">
         <v>1</v>
@@ -7794,7 +7813,7 @@
         <v>79</v>
       </c>
       <c r="AI18" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ18" s="88">
         <v>1</v>
@@ -7908,7 +7927,7 @@
         <v>264</v>
       </c>
       <c r="BU18" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV18" s="88">
         <v>1</v>
@@ -8016,7 +8035,7 @@
         <v>79</v>
       </c>
       <c r="AI19" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ19" s="88">
         <v>1</v>
@@ -8130,7 +8149,7 @@
         <v>264</v>
       </c>
       <c r="BU19" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV19" s="88">
         <v>1</v>
@@ -8156,7 +8175,7 @@
     <row r="22" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C22" s="97" t="s">
         <v>89</v>
@@ -8366,7 +8385,7 @@
         <v>264</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G28" s="88" t="s">
         <v>144</v>
@@ -8512,12 +8531,12 @@
         <v>88</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C36" s="97" t="s">
         <v>89</v>
@@ -8528,7 +8547,7 @@
     </row>
     <row r="37" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C37" s="86" t="s">
         <v>21</v>
@@ -8551,7 +8570,7 @@
     </row>
     <row r="38" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B38" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C38" s="88" t="s">
         <v>239</v>
@@ -8569,12 +8588,12 @@
         <v>375</v>
       </c>
       <c r="H38" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B39" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C39" s="88" t="s">
         <v>239</v>
@@ -8592,7 +8611,7 @@
         <v>375</v>
       </c>
       <c r="H39" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -8620,7 +8639,7 @@
     </row>
     <row r="41" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B41" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C41" s="88" t="s">
         <v>239</v>
@@ -8638,7 +8657,7 @@
         <v>377</v>
       </c>
       <c r="H41" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -8681,14 +8700,14 @@
     </row>
     <row r="45" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B45" s="96" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C45" s="102"/>
       <c r="D45" s="102"/>
     </row>
     <row r="46" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B46" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C46" s="86" t="s">
         <v>21</v>
@@ -8726,7 +8745,7 @@
     </row>
     <row r="47" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B47" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C47" s="88" t="s">
         <v>239</v>
@@ -8750,7 +8769,7 @@
         <v>378</v>
       </c>
       <c r="J47" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K47" s="88" t="s">
         <v>404</v>
@@ -8759,12 +8778,12 @@
         <v>405</v>
       </c>
       <c r="M47" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B48" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C48" s="88" t="s">
         <v>239</v>
@@ -8782,13 +8801,13 @@
         <v>371</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I48" s="88" t="s">
         <v>378</v>
       </c>
       <c r="J48" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K48" s="88" t="s">
         <v>404</v>
@@ -8797,7 +8816,7 @@
         <v>405</v>
       </c>
       <c r="M48" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -8829,10 +8848,10 @@
         <v>406</v>
       </c>
       <c r="K49" s="88" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L49" s="88" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M49" s="88" t="s">
         <v>328</v>
@@ -8840,7 +8859,7 @@
     </row>
     <row r="50" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B50" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C50" s="88" t="s">
         <v>239</v>
@@ -8864,13 +8883,13 @@
         <v>382</v>
       </c>
       <c r="J50" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K50" s="88" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L50" s="88" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M50" s="88" t="s">
         <v>381</v>
@@ -8887,69 +8906,85 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" s="84" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="84" customFormat="1" ht="14.25">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="84" customFormat="1"/>
-    <row r="3" spans="1:4" s="84" customFormat="1" ht="14.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="84" customFormat="1"/>
+    <row r="3" spans="1:9" s="84" customFormat="1" ht="14.25">
       <c r="A3" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
     </row>
-    <row r="4" spans="1:4" s="84" customFormat="1" ht="14.25">
+    <row r="4" spans="1:9" s="84" customFormat="1" ht="14.25">
       <c r="A4" s="91" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="84" customFormat="1" ht="14.25">
-      <c r="A5" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="92" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="84" customFormat="1" ht="14.25">
-      <c r="A6" s="91" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="84" customFormat="1"/>
-    <row r="8" spans="1:4" s="84" customFormat="1"/>
-    <row r="9" spans="1:4" s="84" customFormat="1"/>
-    <row r="10" spans="1:4" s="84" customFormat="1"/>
-    <row r="11" spans="1:4" s="84" customFormat="1"/>
-    <row r="12" spans="1:4" s="84" customFormat="1"/>
-    <row r="13" spans="1:4" s="84" customFormat="1"/>
-    <row r="14" spans="1:4" s="84" customFormat="1"/>
-    <row r="15" spans="1:4" s="84" customFormat="1"/>
-    <row r="16" spans="1:4" s="84" customFormat="1"/>
-    <row r="17" spans="1:9" s="84" customFormat="1"/>
-    <row r="18" spans="1:9" s="84" customFormat="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="84" customFormat="1"/>
+    <row r="6" spans="1:9" s="84" customFormat="1"/>
+    <row r="7" spans="1:9" s="84" customFormat="1"/>
+    <row r="8" spans="1:9" s="84" customFormat="1"/>
+    <row r="9" spans="1:9" s="84" customFormat="1"/>
+    <row r="10" spans="1:9" s="84" customFormat="1"/>
+    <row r="11" spans="1:9" s="84" customFormat="1"/>
+    <row r="12" spans="1:9" s="84" customFormat="1"/>
+    <row r="13" spans="1:9" s="84" customFormat="1"/>
+    <row r="14" spans="1:9" s="84" customFormat="1"/>
+    <row r="15" spans="1:9" s="84" customFormat="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+    </row>
     <row r="19" spans="1:9">
       <c r="A19" s="84"/>
       <c r="B19" s="84"/>
@@ -8982,39 +9017,6 @@
       <c r="G21" s="84"/>
       <c r="H21" s="84"/>
       <c r="I21" s="84"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -9039,12 +9041,12 @@
         <v>88</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B3" s="84" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>89</v>
@@ -9055,7 +9057,7 @@
     </row>
     <row r="4" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>21</v>
@@ -9133,13 +9135,13 @@
         <v>209</v>
       </c>
       <c r="AB4" s="86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC4" s="86" t="s">
         <v>211</v>
       </c>
       <c r="AD4" s="86" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AE4" s="86" t="s">
         <v>270</v>
@@ -9153,7 +9155,7 @@
     </row>
     <row r="5" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B5" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>239</v>
@@ -9168,7 +9170,7 @@
         <v>264</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H5" s="88" t="s">
         <v>324</v>
@@ -9266,7 +9268,7 @@
         <v>264</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H6" s="88" t="s">
         <v>336</v>
@@ -9278,13 +9280,13 @@
         <v>338</v>
       </c>
       <c r="K6" s="88" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L6" s="88" t="s">
         <v>339</v>
       </c>
       <c r="M6" s="88" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N6" s="88" t="s">
         <v>340</v>
@@ -9349,7 +9351,7 @@
     </row>
     <row r="7" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C7" s="88" t="s">
         <v>239</v>
@@ -9364,7 +9366,7 @@
         <v>264</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H7" s="88" t="s">
         <v>350</v>
@@ -9462,7 +9464,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H8" s="88" t="s">
         <v>214</v>
@@ -9554,7 +9556,7 @@
     </row>
     <row r="11" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B11" s="84" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C11" s="84" t="s">
         <v>89</v>
@@ -9915,7 +9917,7 @@
         <v>264</v>
       </c>
       <c r="AD13" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AE13" s="88" t="s">
         <v>239</v>
@@ -10044,7 +10046,7 @@
         <v>264</v>
       </c>
       <c r="BU13" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV13" s="88">
         <v>1</v>
@@ -10265,7 +10267,7 @@
         <v>264</v>
       </c>
       <c r="BU14" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV14" s="88">
         <v>3</v>
@@ -10372,7 +10374,7 @@
         <v>79</v>
       </c>
       <c r="AI15" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ15" s="88">
         <v>1</v>
@@ -10486,7 +10488,7 @@
         <v>264</v>
       </c>
       <c r="BU15" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV15" s="88">
         <v>1</v>
@@ -10593,7 +10595,7 @@
         <v>79</v>
       </c>
       <c r="AI16" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ16" s="88">
         <v>1</v>
@@ -10707,7 +10709,7 @@
         <v>264</v>
       </c>
       <c r="BU16" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV16" s="88">
         <v>1</v>
@@ -10814,7 +10816,7 @@
         <v>79</v>
       </c>
       <c r="AI17" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ17" s="88">
         <v>1</v>
@@ -10928,7 +10930,7 @@
         <v>264</v>
       </c>
       <c r="BU17" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV17" s="88">
         <v>1</v>
@@ -11035,7 +11037,7 @@
         <v>79</v>
       </c>
       <c r="AI18" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ18" s="88">
         <v>1</v>
@@ -11149,7 +11151,7 @@
         <v>264</v>
       </c>
       <c r="BU18" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV18" s="88">
         <v>1</v>
@@ -11166,7 +11168,7 @@
     </row>
     <row r="21" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="84" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C21" s="84" t="s">
         <v>89</v>
@@ -11304,7 +11306,7 @@
         <v>264</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G27" s="88" t="s">
         <v>144</v>
@@ -11440,12 +11442,12 @@
         <v>88</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="84" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C35" s="84" t="s">
         <v>89</v>
@@ -11456,7 +11458,7 @@
     </row>
     <row r="36" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C36" s="86" t="s">
         <v>21</v>
@@ -11479,7 +11481,7 @@
     </row>
     <row r="37" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C37" s="88" t="s">
         <v>239</v>
@@ -11497,7 +11499,7 @@
         <v>375</v>
       </c>
       <c r="H37" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -11525,7 +11527,7 @@
     </row>
     <row r="39" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B39" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C39" s="88" t="s">
         <v>239</v>
@@ -11543,7 +11545,7 @@
         <v>377</v>
       </c>
       <c r="H39" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -11580,12 +11582,12 @@
     </row>
     <row r="43" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B43" s="84" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B44" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C44" s="86" t="s">
         <v>21</v>
@@ -11623,7 +11625,7 @@
     </row>
     <row r="45" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B45" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>239</v>
@@ -11641,13 +11643,13 @@
         <v>371</v>
       </c>
       <c r="H45" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I45" s="88" t="s">
         <v>378</v>
       </c>
       <c r="J45" s="88" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K45" s="88" t="s">
         <v>404</v>
@@ -11656,7 +11658,7 @@
         <v>405</v>
       </c>
       <c r="M45" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
@@ -11688,10 +11690,10 @@
         <v>406</v>
       </c>
       <c r="K46" s="88" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L46" s="88" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M46" s="88" t="s">
         <v>328</v>
@@ -11699,7 +11701,7 @@
     </row>
     <row r="47" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B47" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C47" s="88" t="s">
         <v>239</v>
@@ -11723,13 +11725,13 @@
         <v>382</v>
       </c>
       <c r="J47" s="88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K47" s="88" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L47" s="88" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M47" s="88" t="s">
         <v>381</v>
@@ -11785,8 +11787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11825,32 +11827,32 @@
         <v>86</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="89" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>415</v>
-      </c>
       <c r="I5" s="22" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="89" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>244</v>
@@ -11862,81 +11864,81 @@
         <v>246</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="22" customFormat="1">
       <c r="B7" s="89" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="89" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="89" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="89" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="89" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D10" s="89" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E10" s="89" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -12405,7 +12407,7 @@
         <v>383</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -12482,7 +12484,7 @@
   <dimension ref="A2:BV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -14938,10 +14940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15762,7 +15764,7 @@
         <v>383</v>
       </c>
       <c r="B59" s="84" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25">
@@ -15917,8 +15919,8 @@
       <c r="B77" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="33" t="s">
-        <v>409</v>
+      <c r="C77" s="33">
+        <v>2000</v>
       </c>
       <c r="D77" s="34" t="s">
         <v>100</v>
@@ -16261,95 +16263,136 @@
       </c>
       <c r="E103" s="36"/>
     </row>
-    <row r="106" spans="1:5" ht="14.25">
-      <c r="A106" s="27" t="s">
+    <row r="104" spans="1:5">
+      <c r="E104" s="36"/>
+    </row>
+    <row r="105" spans="1:5" ht="14.25">
+      <c r="A105" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B105" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="51" t="s">
+      <c r="D105" s="51" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.25">
-      <c r="A107" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="51"/>
-    </row>
-    <row r="108" spans="1:5" s="36" customFormat="1" ht="14.25">
-      <c r="A108" s="27" t="s">
+    <row r="109" spans="1:5">
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+    </row>
+    <row r="110" spans="1:5" ht="14.25">
+      <c r="A110" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+    </row>
+    <row r="112" spans="1:5" ht="14.25">
+      <c r="A112" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.25">
+      <c r="A113" s="27"/>
+      <c r="B113" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="36"/>
+    </row>
+    <row r="114" spans="1:5" ht="14.25">
+      <c r="A114" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="B108" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="33">
-        <v>2000</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="14.25">
-      <c r="A109" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="E109" s="36"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
+      <c r="B114" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E114" s="36"/>
     </row>
     <row r="115" spans="1:5" ht="14.25">
       <c r="A115" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="44">
+        <v>100004</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="E115" s="36"/>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
+    <row r="116" spans="1:5" ht="14.25">
+      <c r="A116" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="E116" s="36"/>
     </row>
     <row r="117" spans="1:5" ht="14.25">
       <c r="A117" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="42" t="s">
-        <v>95</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" s="36"/>
     </row>
     <row r="118" spans="1:5" ht="14.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="31" t="s">
-        <v>4</v>
+      <c r="A118" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E118" s="36"/>
     </row>
@@ -16358,13 +16401,13 @@
         <v>296</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>171</v>
+        <v>128</v>
+      </c>
+      <c r="C119" s="33">
+        <v>4001</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E119" s="36"/>
     </row>
@@ -16372,14 +16415,14 @@
       <c r="A120" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="44">
-        <v>100004</v>
+      <c r="B120" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="33">
+        <v>4007</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E120" s="36"/>
     </row>
@@ -16388,13 +16431,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>299</v>
+        <v>269</v>
+      </c>
+      <c r="C121" s="33">
+        <v>4009</v>
       </c>
       <c r="D121" s="34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E121" s="36"/>
     </row>
@@ -16403,13 +16446,13 @@
         <v>5</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>317</v>
+        <v>270</v>
+      </c>
+      <c r="C122" s="33">
+        <v>4321</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="E122" s="36"/>
     </row>
@@ -16418,13 +16461,13 @@
         <v>5</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123" s="50" t="s">
-        <v>318</v>
+        <v>130</v>
+      </c>
+      <c r="C123" s="33">
+        <v>41</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E123" s="36"/>
     </row>
@@ -16433,13 +16476,13 @@
         <v>296</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="C124" s="33">
-        <v>4001</v>
+        <v>42</v>
       </c>
       <c r="D124" s="34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E124" s="36"/>
     </row>
@@ -16448,13 +16491,13 @@
         <v>5</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C125" s="33">
-        <v>4007</v>
+        <v>43</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E125" s="36"/>
     </row>
@@ -16463,13 +16506,13 @@
         <v>5</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="C126" s="33">
-        <v>4009</v>
+        <v>44</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="E126" s="36"/>
     </row>
@@ -16478,13 +16521,13 @@
         <v>5</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="C127" s="33">
-        <v>4321</v>
+        <v>45</v>
       </c>
       <c r="D127" s="34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E127" s="36"/>
     </row>
@@ -16493,13 +16536,13 @@
         <v>5</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C128" s="33">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D128" s="34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E128" s="36"/>
     </row>
@@ -16508,13 +16551,13 @@
         <v>296</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C129" s="33">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D129" s="34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E129" s="36"/>
     </row>
@@ -16523,13 +16566,13 @@
         <v>5</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C130" s="33">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D130" s="34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E130" s="36"/>
     </row>
@@ -16538,13 +16581,13 @@
         <v>5</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="C131" s="33">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D131" s="34" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="E131" s="36"/>
     </row>
@@ -16553,74 +16596,46 @@
         <v>5</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132" s="33">
-        <v>45</v>
+        <v>273</v>
+      </c>
+      <c r="C132" s="42">
+        <v>50</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E132" s="36"/>
     </row>
-    <row r="133" spans="1:5" ht="14.25">
-      <c r="A133" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" s="33">
-        <v>46</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>108</v>
-      </c>
+    <row r="133" spans="1:5">
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
       <c r="E133" s="36"/>
     </row>
-    <row r="134" spans="1:5" ht="14.25">
-      <c r="A134" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B134" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C134" s="33">
-        <v>47</v>
-      </c>
-      <c r="D134" s="34" t="s">
-        <v>109</v>
-      </c>
+    <row r="134" spans="1:5">
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
       <c r="E134" s="36"/>
     </row>
     <row r="135" spans="1:5" ht="14.25">
       <c r="A135" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" s="33">
-        <v>48</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>110</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
       <c r="E135" s="36"/>
     </row>
-    <row r="136" spans="1:5" ht="14.25">
-      <c r="A136" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C136" s="33">
-        <v>49</v>
-      </c>
-      <c r="D136" s="34" t="s">
-        <v>111</v>
-      </c>
+    <row r="136" spans="1:5">
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
       <c r="E136" s="36"/>
     </row>
     <row r="137" spans="1:5" ht="14.25">
@@ -16628,13 +16643,13 @@
         <v>5</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C137" s="42">
-        <v>50</v>
+        <v>250</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>319</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="E137" s="36"/>
     </row>
@@ -16645,29 +16660,37 @@
       <c r="D138" s="36"/>
       <c r="E138" s="36"/>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
+    <row r="139" spans="1:5" ht="14.25">
+      <c r="A139" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="C139" s="36"/>
       <c r="D139" s="36"/>
       <c r="E139" s="36"/>
     </row>
-    <row r="140" spans="1:5" ht="14.25">
-      <c r="A140" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="42" t="s">
-        <v>125</v>
-      </c>
+    <row r="140" spans="1:5">
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
       <c r="E140" s="36"/>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
+    <row r="141" spans="1:5" ht="14.25">
+      <c r="A141" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="E141" s="36"/>
     </row>
     <row r="142" spans="1:5" ht="14.25">
@@ -16675,39 +16698,59 @@
         <v>5</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>319</v>
+        <v>277</v>
+      </c>
+      <c r="C142" s="33">
+        <v>128</v>
       </c>
       <c r="D142" s="34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E142" s="36"/>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
+    <row r="143" spans="1:5" ht="14.25">
+      <c r="A143" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>113</v>
+      </c>
       <c r="E143" s="36"/>
     </row>
     <row r="144" spans="1:5" ht="14.25">
       <c r="A144" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="E144" s="36"/>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
+    <row r="145" spans="1:5" ht="14.25">
+      <c r="A145" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="33">
+        <v>128</v>
+      </c>
+      <c r="D145" s="34" t="s">
+        <v>115</v>
+      </c>
       <c r="E145" s="36"/>
     </row>
     <row r="146" spans="1:5" ht="14.25">
@@ -16715,159 +16758,159 @@
         <v>5</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E146" s="36"/>
     </row>
-    <row r="147" spans="1:5" ht="14.25">
-      <c r="A147" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C147" s="33">
-        <v>128</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>278</v>
-      </c>
+    <row r="147" spans="1:5">
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
       <c r="E147" s="36"/>
     </row>
-    <row r="148" spans="1:5" ht="14.25">
-      <c r="A148" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D148" s="34" t="s">
-        <v>113</v>
-      </c>
+    <row r="148" spans="1:5">
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
       <c r="E148" s="36"/>
     </row>
     <row r="149" spans="1:5" ht="14.25">
       <c r="A149" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E149" s="36"/>
-    </row>
-    <row r="150" spans="1:5" ht="14.25">
-      <c r="A150" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C150" s="33">
-        <v>128</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E150" s="36"/>
-    </row>
-    <row r="151" spans="1:5" ht="14.25">
-      <c r="A151" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="E151" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="36"/>
+      <c r="D149" s="51" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
       <c r="E152" s="36"/>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
+    <row r="153" spans="1:5" ht="14.25">
+      <c r="A153" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="C153" s="36"/>
       <c r="D153" s="36"/>
       <c r="E153" s="36"/>
     </row>
-    <row r="154" spans="1:5" ht="14.25">
-      <c r="A154" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="42" t="s">
-        <v>137</v>
-      </c>
+    <row r="154" spans="1:5">
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="36"/>
-      <c r="D154" s="51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+    </row>
+    <row r="155" spans="1:5" ht="14.25">
+      <c r="A155" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+    </row>
+    <row r="156" spans="1:5" ht="14.25">
+      <c r="A156" s="27"/>
+      <c r="B156" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="36"/>
+    </row>
+    <row r="157" spans="1:5" ht="14.25">
+      <c r="A157" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B157" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E157" s="36"/>
     </row>
     <row r="158" spans="1:5" ht="14.25">
       <c r="A158" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B158" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="44">
+        <v>100005</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="E158" s="36"/>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
+    <row r="159" spans="1:5" ht="14.25">
+      <c r="A159" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>98</v>
+      </c>
       <c r="E159" s="36"/>
     </row>
     <row r="160" spans="1:5" ht="14.25">
       <c r="A160" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B160" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>267</v>
+      </c>
       <c r="E160" s="36"/>
     </row>
     <row r="161" spans="1:5" ht="14.25">
-      <c r="A161" s="27"/>
-      <c r="B161" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="31" t="s">
-        <v>4</v>
+      <c r="A161" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="E161" s="36"/>
     </row>
@@ -16876,13 +16919,13 @@
         <v>296</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>183</v>
+        <v>128</v>
+      </c>
+      <c r="C162" s="33">
+        <v>1111</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E162" s="36"/>
     </row>
@@ -16890,14 +16933,14 @@
       <c r="A163" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="44">
-        <v>100005</v>
+      <c r="B163" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="33">
+        <v>2222</v>
       </c>
       <c r="D163" s="34" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E163" s="36"/>
     </row>
@@ -16906,13 +16949,13 @@
         <v>5</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>300</v>
+        <v>269</v>
+      </c>
+      <c r="C164" s="33">
+        <v>3333</v>
       </c>
       <c r="D164" s="34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E164" s="36"/>
     </row>
@@ -16921,13 +16964,13 @@
         <v>5</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>212</v>
+        <v>270</v>
+      </c>
+      <c r="C165" s="33">
+        <v>4444</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="E165" s="36"/>
     </row>
@@ -16936,13 +16979,13 @@
         <v>5</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>268</v>
+        <v>130</v>
+      </c>
+      <c r="C166" s="33">
+        <v>11</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E166" s="36"/>
     </row>
@@ -16951,13 +16994,13 @@
         <v>296</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="C167" s="33">
-        <v>1111</v>
+        <v>22</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E167" s="36"/>
     </row>
@@ -16966,13 +17009,13 @@
         <v>5</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C168" s="33">
-        <v>2222</v>
+        <v>33</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E168" s="36"/>
     </row>
@@ -16981,13 +17024,13 @@
         <v>5</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="C169" s="33">
-        <v>3333</v>
+        <v>44</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="E169" s="36"/>
     </row>
@@ -16996,13 +17039,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="C170" s="33">
-        <v>4444</v>
+        <v>55</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E170" s="36"/>
     </row>
@@ -17011,13 +17054,13 @@
         <v>5</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C171" s="33">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E171" s="36"/>
     </row>
@@ -17026,13 +17069,13 @@
         <v>296</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C172" s="33">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E172" s="36"/>
     </row>
@@ -17041,13 +17084,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C173" s="33">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E173" s="36"/>
     </row>
@@ -17056,13 +17099,13 @@
         <v>5</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="C174" s="33">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="E174" s="36"/>
     </row>
@@ -17071,74 +17114,46 @@
         <v>5</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C175" s="33">
-        <v>55</v>
+        <v>273</v>
+      </c>
+      <c r="C175" s="42">
+        <v>100</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E175" s="36"/>
     </row>
-    <row r="176" spans="1:5" ht="14.25">
-      <c r="A176" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C176" s="33">
-        <v>66</v>
-      </c>
-      <c r="D176" s="34" t="s">
-        <v>108</v>
-      </c>
+    <row r="176" spans="1:5">
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
       <c r="E176" s="36"/>
     </row>
-    <row r="177" spans="1:5" ht="14.25">
-      <c r="A177" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B177" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C177" s="33">
-        <v>77</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>109</v>
-      </c>
+    <row r="177" spans="1:5">
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
       <c r="E177" s="36"/>
     </row>
     <row r="178" spans="1:5" ht="14.25">
       <c r="A178" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C178" s="33">
-        <v>88</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>110</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B178" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
       <c r="E178" s="36"/>
     </row>
-    <row r="179" spans="1:5" ht="14.25">
-      <c r="A179" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C179" s="33">
-        <v>99</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>111</v>
-      </c>
+    <row r="179" spans="1:5">
+      <c r="A179" s="42"/>
+      <c r="B179" s="42"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
       <c r="E179" s="36"/>
     </row>
     <row r="180" spans="1:5" ht="14.25">
@@ -17146,13 +17161,13 @@
         <v>5</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C180" s="42">
-        <v>100</v>
+        <v>250</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="E180" s="36"/>
     </row>
@@ -17163,29 +17178,37 @@
       <c r="D181" s="36"/>
       <c r="E181" s="36"/>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
+    <row r="182" spans="1:5" ht="14.25">
+      <c r="A182" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="C182" s="36"/>
       <c r="D182" s="36"/>
       <c r="E182" s="36"/>
     </row>
-    <row r="183" spans="1:5" ht="14.25">
-      <c r="A183" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B183" s="42" t="s">
-        <v>125</v>
-      </c>
+    <row r="183" spans="1:5">
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="36"/>
       <c r="D183" s="36"/>
       <c r="E183" s="36"/>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
+    <row r="184" spans="1:5" ht="14.25">
+      <c r="A184" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184" s="34" t="s">
+        <v>276</v>
+      </c>
       <c r="E184" s="36"/>
     </row>
     <row r="185" spans="1:5" ht="14.25">
@@ -17193,39 +17216,59 @@
         <v>5</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="C185" s="33">
+        <v>-1</v>
       </c>
       <c r="D185" s="34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E185" s="36"/>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
+    <row r="186" spans="1:5" ht="14.25">
+      <c r="A186" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D186" s="34" t="s">
+        <v>113</v>
+      </c>
       <c r="E186" s="36"/>
     </row>
     <row r="187" spans="1:5" ht="14.25">
       <c r="A187" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D187" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="E187" s="36"/>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
+    <row r="188" spans="1:5" ht="14.25">
+      <c r="A188" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C188" s="33">
+        <v>-1</v>
+      </c>
+      <c r="D188" s="34" t="s">
+        <v>115</v>
+      </c>
       <c r="E188" s="36"/>
     </row>
     <row r="189" spans="1:5" ht="14.25">
@@ -17233,123 +17276,105 @@
         <v>5</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="D189" s="34" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E189" s="36"/>
     </row>
-    <row r="190" spans="1:5" ht="14.25">
-      <c r="A190" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C190" s="33">
-        <v>-1</v>
-      </c>
-      <c r="D190" s="34" t="s">
-        <v>278</v>
-      </c>
+    <row r="190" spans="1:5">
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
       <c r="E190" s="36"/>
     </row>
-    <row r="191" spans="1:5" ht="14.25">
-      <c r="A191" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C191" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D191" s="34" t="s">
-        <v>113</v>
-      </c>
+    <row r="191" spans="1:5">
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
       <c r="E191" s="36"/>
     </row>
     <row r="192" spans="1:5" ht="14.25">
       <c r="A192" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D192" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E192" s="36"/>
-    </row>
-    <row r="193" spans="1:7" ht="14.25">
-      <c r="A193" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="C193" s="33">
-        <v>-1</v>
-      </c>
-      <c r="D193" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E193" s="36"/>
-    </row>
-    <row r="194" spans="1:7" ht="14.25">
-      <c r="A194" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="C194" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D194" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="E194" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C192" s="36"/>
+      <c r="D192" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="B194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
       <c r="E195" s="36"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+    </row>
+    <row r="196" spans="1:7" ht="14.25">
+      <c r="A196" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="C196" s="36"/>
       <c r="D196" s="36"/>
       <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
     </row>
     <row r="197" spans="1:7" ht="14.25">
       <c r="A197" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B197" s="42" t="s">
+      <c r="B197" s="36" t="s">
         <v>137</v>
       </c>
       <c r="C197" s="36"/>
-      <c r="D197" s="51" t="s">
-        <v>384</v>
-      </c>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+    </row>
+    <row r="198" spans="1:7" ht="14.25">
+      <c r="A198" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B198" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
     </row>
     <row r="199" spans="1:7">
+      <c r="A199" s="36"/>
       <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="36"/>
       <c r="F199" s="36"/>
       <c r="G199" s="36"/>
     </row>
     <row r="200" spans="1:7">
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
       <c r="E200" s="36"/>
       <c r="F200" s="36"/>
       <c r="G200" s="36"/>
@@ -17369,10 +17394,10 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="B202" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C202" s="36"/>
       <c r="D202" s="36"/>
@@ -17381,42 +17406,60 @@
       <c r="G202" s="36"/>
     </row>
     <row r="203" spans="1:7" ht="14.25">
-      <c r="A203" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B203" s="84" t="s">
-        <v>500</v>
-      </c>
-      <c r="C203" s="36"/>
-      <c r="D203" s="36"/>
+      <c r="A203" s="27"/>
+      <c r="B203" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="31" t="s">
+        <v>4</v>
+      </c>
       <c r="E203" s="36"/>
       <c r="F203" s="36"/>
       <c r="G203" s="36"/>
     </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="36"/>
+    <row r="204" spans="1:7" ht="14.25">
+      <c r="A204" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D204" s="34" t="s">
+        <v>8</v>
+      </c>
       <c r="E204" s="36"/>
       <c r="F204" s="36"/>
       <c r="G204" s="36"/>
     </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
+    <row r="205" spans="1:7" ht="14.25">
+      <c r="A205" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="44">
+        <v>100001</v>
+      </c>
+      <c r="D205" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="E205" s="36"/>
       <c r="F205" s="36"/>
       <c r="G205" s="36"/>
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="27" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B206" s="36" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C206" s="36"/>
       <c r="D206" s="36"/>
@@ -17426,89 +17469,14 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B207" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" s="36"/>
-      <c r="D207" s="36"/>
+        <v>383</v>
+      </c>
+      <c r="B207" s="84" t="s">
+        <v>497</v>
+      </c>
       <c r="E207" s="36"/>
       <c r="F207" s="36"/>
       <c r="G207" s="36"/>
-    </row>
-    <row r="208" spans="1:7" ht="14.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D208" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E208" s="36"/>
-      <c r="F208" s="36"/>
-      <c r="G208" s="36"/>
-    </row>
-    <row r="209" spans="1:7" ht="14.25">
-      <c r="A209" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B209" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C209" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D209" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" s="36"/>
-      <c r="F209" s="36"/>
-      <c r="G209" s="36"/>
-    </row>
-    <row r="210" spans="1:7" ht="14.25">
-      <c r="A210" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="44">
-        <v>100001</v>
-      </c>
-      <c r="D210" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E210" s="36"/>
-      <c r="F210" s="36"/>
-      <c r="G210" s="36"/>
-    </row>
-    <row r="211" spans="1:7" ht="14.25">
-      <c r="A211" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B211" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="36"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="36"/>
-      <c r="G211" s="36"/>
-    </row>
-    <row r="212" spans="1:7" ht="14.25">
-      <c r="A212" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B212" s="84" t="s">
-        <v>501</v>
-      </c>
-      <c r="E212" s="36"/>
-      <c r="F212" s="36"/>
-      <c r="G212" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -17520,8 +17488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17532,12 +17500,12 @@
         <v>88</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B3" s="96" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C3" s="97" t="s">
         <v>89</v>
@@ -17548,7 +17516,7 @@
     </row>
     <row r="4" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>21</v>
@@ -17626,13 +17594,13 @@
         <v>209</v>
       </c>
       <c r="AB4" s="86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC4" s="86" t="s">
         <v>211</v>
       </c>
       <c r="AD4" s="86" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AE4" s="86" t="s">
         <v>270</v>
@@ -17645,106 +17613,148 @@
       </c>
     </row>
     <row r="5" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B5" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>443</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="I5" s="88" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5" s="88" t="s">
-        <v>326</v>
-      </c>
-      <c r="K5" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="88" t="s">
-        <v>327</v>
-      </c>
-      <c r="M5" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="N5" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="O5" s="88" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="118" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="N5" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="88" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q5" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="S5" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="T5" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="U5" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="V5" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="W5" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="X5" s="88" t="s">
+      <c r="O5" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" s="118" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="118" t="s">
+        <v>223</v>
+      </c>
+      <c r="R5" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="S5" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="U5" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="V5" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="W5" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="X5" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="Y5" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z5" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB5" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC5" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD5" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE5" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF5" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="AG5" s="88" t="s">
-        <v>367</v>
-      </c>
+      <c r="Y5" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z5" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB5" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC5" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD5" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE5" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF5" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG5" s="118" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
+      <c r="AX5" s="117"/>
+      <c r="AY5" s="117"/>
+      <c r="AZ5" s="117"/>
+      <c r="BA5" s="117"/>
+      <c r="BB5" s="117"/>
+      <c r="BC5" s="117"/>
+      <c r="BD5" s="117"/>
+      <c r="BE5" s="117"/>
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="117"/>
+      <c r="BH5" s="117"/>
+      <c r="BI5" s="117"/>
+      <c r="BJ5" s="117"/>
+      <c r="BK5" s="117"/>
+      <c r="BL5" s="117"/>
+      <c r="BM5" s="117"/>
+      <c r="BN5" s="117"/>
+      <c r="BO5" s="117"/>
+      <c r="BP5" s="117"/>
+      <c r="BQ5" s="117"/>
+      <c r="BR5" s="117"/>
+      <c r="BS5" s="117"/>
+      <c r="BT5" s="117"/>
+      <c r="BU5" s="117"/>
+      <c r="BV5" s="117"/>
     </row>
     <row r="6" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B6" s="88" t="s">
-        <v>422</v>
+      <c r="B6" s="109" t="s">
+        <v>287</v>
       </c>
       <c r="C6" s="88" t="s">
         <v>239</v>
@@ -17759,7 +17769,7 @@
         <v>264</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H6" s="88" t="s">
         <v>324</v>
@@ -17827,22 +17837,22 @@
       <c r="AC6" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="AD6" s="88" t="s">
+      <c r="AD6" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="AE6" s="88" t="s">
+      <c r="AE6" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="AF6" s="88" t="s">
+      <c r="AF6" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="AG6" s="88" t="s">
+      <c r="AG6" s="118" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B7" s="88" t="s">
-        <v>406</v>
+      <c r="B7" s="109" t="s">
+        <v>287</v>
       </c>
       <c r="C7" s="88" t="s">
         <v>239</v>
@@ -17857,7 +17867,7 @@
         <v>264</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H7" s="88" t="s">
         <v>336</v>
@@ -17869,13 +17879,13 @@
         <v>338</v>
       </c>
       <c r="K7" s="88" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L7" s="88" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="88" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N7" s="88" t="s">
         <v>340</v>
@@ -17939,8 +17949,8 @@
       </c>
     </row>
     <row r="8" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B8" s="88" t="s">
-        <v>427</v>
+      <c r="B8" s="109" t="s">
+        <v>287</v>
       </c>
       <c r="C8" s="88" t="s">
         <v>239</v>
@@ -17955,7 +17965,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H8" s="88" t="s">
         <v>350</v>
@@ -18038,8 +18048,8 @@
     </row>
     <row r="9" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="93"/>
-      <c r="B9" s="88" t="s">
-        <v>407</v>
+      <c r="B9" s="109" t="s">
+        <v>287</v>
       </c>
       <c r="C9" s="88" t="s">
         <v>239</v>
@@ -18054,7 +18064,7 @@
         <v>264</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>214</v>
@@ -18264,7 +18274,7 @@
     <row r="12" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="95"/>
       <c r="B12" s="96" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C12" s="97" t="s">
         <v>89</v>
@@ -18682,7 +18692,7 @@
         <v>264</v>
       </c>
       <c r="AD14" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AE14" s="88" t="s">
         <v>239</v>
@@ -18811,7 +18821,7 @@
         <v>264</v>
       </c>
       <c r="BU14" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV14" s="88">
         <v>1</v>
@@ -19033,7 +19043,7 @@
         <v>264</v>
       </c>
       <c r="BU15" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV15" s="88">
         <v>3</v>
@@ -19141,7 +19151,7 @@
         <v>79</v>
       </c>
       <c r="AI16" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ16" s="88">
         <v>1</v>
@@ -19255,7 +19265,7 @@
         <v>264</v>
       </c>
       <c r="BU16" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV16" s="88">
         <v>1</v>
@@ -19363,7 +19373,7 @@
         <v>79</v>
       </c>
       <c r="AI17" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ17" s="88">
         <v>1</v>
@@ -19477,7 +19487,7 @@
         <v>264</v>
       </c>
       <c r="BU17" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV17" s="88">
         <v>1</v>
@@ -19585,7 +19595,7 @@
         <v>79</v>
       </c>
       <c r="AI18" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ18" s="88">
         <v>1</v>
@@ -19699,7 +19709,7 @@
         <v>264</v>
       </c>
       <c r="BU18" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV18" s="88">
         <v>1</v>
@@ -19807,7 +19817,7 @@
         <v>79</v>
       </c>
       <c r="AI19" s="88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ19" s="88">
         <v>1</v>
@@ -19921,7 +19931,7 @@
         <v>264</v>
       </c>
       <c r="BU19" s="88" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV19" s="88">
         <v>1</v>
@@ -19947,7 +19957,7 @@
     <row r="22" spans="1:74" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="95"/>
       <c r="B22" s="96" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C22" s="97" t="s">
         <v>89</v>
@@ -20157,7 +20167,7 @@
         <v>264</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G28" s="88" t="s">
         <v>144</v>
@@ -20303,12 +20313,12 @@
         <v>88</v>
       </c>
       <c r="B35" s="95" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B36" s="96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C36" s="97" t="s">
         <v>89</v>
@@ -20319,7 +20329,7 @@
     </row>
     <row r="37" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37" s="87" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C37" s="86" t="s">
         <v>21</v>
@@ -20341,8 +20351,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B38" s="88" t="s">
-        <v>421</v>
+      <c r="B38" s="120" t="s">
+        <v>287</v>
       </c>
       <c r="C38" s="88" t="s">
         <v>239</v>
@@ -20356,319 +20366,339 @@
       <c r="F38" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="88" t="s">
+      <c r="G38" s="123" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="122" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B39" s="123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="123" t="s">
         <v>375</v>
       </c>
-      <c r="H38" s="88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B39" s="88" t="s">
-        <v>422</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="88" t="s">
+      <c r="H39" s="123" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B40" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="H39" s="88" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B40" s="88" t="s">
+      <c r="H40" s="118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B41" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B42" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>377</v>
+      </c>
+      <c r="H42" s="118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A43" s="93"/>
+      <c r="B43" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+    </row>
+    <row r="44" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A45" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B46" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+    </row>
+    <row r="47" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B47" s="87" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="M47" s="86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B48" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="120" t="s">
+        <v>419</v>
+      </c>
+      <c r="I48" s="120" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="K48" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="M48" s="120" t="s">
         <v>406</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="H40" s="88" t="s">
+    </row>
+    <row r="49" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B49" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="120" t="s">
+        <v>374</v>
+      </c>
+      <c r="H49" s="120" t="s">
+        <v>328</v>
+      </c>
+      <c r="I49" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" s="120" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" s="120" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" s="120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B50" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="H50" s="120" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B41" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G41" s="88" t="s">
-        <v>377</v>
-      </c>
-      <c r="H41" s="88" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="93"/>
-      <c r="B42" s="88" t="s">
+      <c r="I50" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="K50" s="120" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" s="120" t="s">
+        <v>405</v>
+      </c>
+      <c r="M50" s="120" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G42" s="88" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="88" t="s">
-        <v>407</v>
-      </c>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-    </row>
-    <row r="43" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="44" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A44" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B45" s="96" t="s">
-        <v>448</v>
-      </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-    </row>
-    <row r="46" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B46" s="87" t="s">
-        <v>418</v>
-      </c>
-      <c r="C46" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="K46" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="L46" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="M46" s="86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B47" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="C47" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" s="88" t="s">
-        <v>371</v>
-      </c>
-      <c r="H47" s="88">
-        <v>2</v>
-      </c>
-      <c r="I47" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="J47" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="K47" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="L47" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="M47" s="88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B48" s="88" t="s">
-        <v>422</v>
-      </c>
-      <c r="C48" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G48" s="88" t="s">
-        <v>371</v>
-      </c>
-      <c r="H48" s="88" t="s">
-        <v>421</v>
-      </c>
-      <c r="I48" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="J48" s="88" t="s">
-        <v>422</v>
-      </c>
-      <c r="K48" s="88" t="s">
-        <v>404</v>
-      </c>
-      <c r="L48" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="M48" s="88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B49" s="88" t="s">
-        <v>406</v>
-      </c>
-      <c r="C49" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="H49" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="I49" s="88" t="s">
-        <v>379</v>
-      </c>
-      <c r="J49" s="88" t="s">
-        <v>406</v>
-      </c>
-      <c r="K49" s="88" t="s">
+    </row>
+    <row r="51" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B51" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="120" t="s">
+        <v>380</v>
+      </c>
+      <c r="H51" s="120" t="s">
+        <v>381</v>
+      </c>
+      <c r="I51" s="120" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="K51" s="120" t="s">
+        <v>430</v>
+      </c>
+      <c r="L51" s="120" t="s">
         <v>431</v>
       </c>
-      <c r="L49" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="M49" s="88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B50" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="C50" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D50" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="G50" s="88" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="88" t="s">
+      <c r="M51" s="120" t="s">
         <v>381</v>
       </c>
-      <c r="I50" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="J50" s="88" t="s">
-        <v>427</v>
-      </c>
-      <c r="K50" s="88" t="s">
-        <v>433</v>
-      </c>
-      <c r="L50" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="M50" s="88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B51" s="93"/>
     </row>
     <row r="52" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="53" spans="2:13" s="84" customFormat="1" ht="12.75" customHeight="1"/>
@@ -20684,7 +20714,7 @@
   <dimension ref="A2:BW62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21804,7 +21834,7 @@
         <v>264</v>
       </c>
       <c r="BU12" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV12" s="109">
         <v>1</v>
@@ -22023,7 +22053,7 @@
         <v>264</v>
       </c>
       <c r="BU13" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV13" s="109">
         <v>3</v>
@@ -22242,7 +22272,7 @@
         <v>264</v>
       </c>
       <c r="BU14" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV14" s="109">
         <v>1</v>
@@ -22461,7 +22491,7 @@
         <v>264</v>
       </c>
       <c r="BU15" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV15" s="109">
         <v>1</v>
@@ -22680,7 +22710,7 @@
         <v>264</v>
       </c>
       <c r="BU16" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV16" s="109">
         <v>1</v>
@@ -22899,7 +22929,7 @@
         <v>264</v>
       </c>
       <c r="BU17" s="109" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV17" s="109">
         <v>1</v>
@@ -24173,7 +24203,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C36" s="111"/>
       <c r="D36" s="111"/>
@@ -24210,7 +24240,7 @@
     <row r="37" spans="1:33">
       <c r="A37" s="111"/>
       <c r="B37" s="114" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C37" s="115" t="s">
         <v>89</v>
@@ -24251,7 +24281,7 @@
     <row r="38" spans="1:33">
       <c r="A38" s="111"/>
       <c r="B38" s="108" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C38" s="107" t="s">
         <v>21</v>
@@ -24329,13 +24359,13 @@
         <v>209</v>
       </c>
       <c r="AB38" s="107" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC38" s="107" t="s">
         <v>211</v>
       </c>
       <c r="AD38" s="107" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AE38" s="107" t="s">
         <v>270</v>
@@ -24350,7 +24380,7 @@
     <row r="39" spans="1:33">
       <c r="A39" s="111"/>
       <c r="B39" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C39" s="109" t="s">
         <v>91</v>
@@ -24365,7 +24395,7 @@
         <v>264</v>
       </c>
       <c r="G39" s="109" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H39" s="109" t="s">
         <v>214</v>
@@ -24449,7 +24479,7 @@
     <row r="40" spans="1:33">
       <c r="A40" s="111"/>
       <c r="B40" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C40" s="109" t="s">
         <v>91</v>
@@ -24464,7 +24494,7 @@
         <v>264</v>
       </c>
       <c r="G40" s="109" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H40" s="109" t="s">
         <v>324</v>
@@ -24563,7 +24593,7 @@
         <v>264</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H41" s="109" t="s">
         <v>336</v>
@@ -24575,13 +24605,13 @@
         <v>338</v>
       </c>
       <c r="K41" s="109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L41" s="109" t="s">
         <v>339</v>
       </c>
       <c r="M41" s="109" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N41" s="109" t="s">
         <v>340</v>
@@ -24647,7 +24677,7 @@
     <row r="42" spans="1:33">
       <c r="A42" s="111"/>
       <c r="B42" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C42" s="109" t="s">
         <v>91</v>
@@ -24662,7 +24692,7 @@
         <v>264</v>
       </c>
       <c r="G42" s="109" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H42" s="109" t="s">
         <v>350</v>
@@ -24761,7 +24791,7 @@
         <v>264</v>
       </c>
       <c r="G43" s="109" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H43" s="109" t="s">
         <v>214</v>
@@ -24917,7 +24947,7 @@
         <v>88</v>
       </c>
       <c r="B46" s="113" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C46" s="105"/>
       <c r="D46" s="105"/>
@@ -24954,7 +24984,7 @@
     <row r="47" spans="1:33">
       <c r="A47" s="105"/>
       <c r="B47" s="114" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C47" s="116"/>
       <c r="D47" s="116"/>
@@ -24991,7 +25021,7 @@
     <row r="48" spans="1:33">
       <c r="A48" s="105"/>
       <c r="B48" s="108" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C48" s="107" t="s">
         <v>21</v>
@@ -25040,7 +25070,7 @@
     <row r="49" spans="1:13">
       <c r="A49" s="105"/>
       <c r="B49" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C49" s="109" t="s">
         <v>239</v>
@@ -25058,7 +25088,7 @@
         <v>238</v>
       </c>
       <c r="H49" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I49" s="105"/>
       <c r="J49" s="105"/>
@@ -25069,7 +25099,7 @@
     <row r="50" spans="1:13">
       <c r="A50" s="105"/>
       <c r="B50" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C50" s="109" t="s">
         <v>239</v>
@@ -25087,7 +25117,7 @@
         <v>375</v>
       </c>
       <c r="H50" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I50" s="105"/>
       <c r="J50" s="105"/>
@@ -25127,7 +25157,7 @@
     <row r="52" spans="1:13">
       <c r="A52" s="105"/>
       <c r="B52" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C52" s="109" t="s">
         <v>239</v>
@@ -25145,7 +25175,7 @@
         <v>377</v>
       </c>
       <c r="H52" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I52" s="105"/>
       <c r="J52" s="105"/>
@@ -25204,7 +25234,7 @@
     <row r="57" spans="1:13">
       <c r="A57" s="105"/>
       <c r="B57" s="114" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C57" s="116"/>
       <c r="D57" s="116"/>
@@ -25221,7 +25251,7 @@
     <row r="58" spans="1:13">
       <c r="A58" s="105"/>
       <c r="B58" s="108" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C58" s="107" t="s">
         <v>21</v>
@@ -25260,7 +25290,7 @@
     <row r="59" spans="1:13">
       <c r="A59" s="105"/>
       <c r="B59" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C59" s="109" t="s">
         <v>239</v>
@@ -25284,7 +25314,7 @@
         <v>136</v>
       </c>
       <c r="J59" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K59" s="109" t="s">
         <v>122</v>
@@ -25299,7 +25329,7 @@
     <row r="60" spans="1:13">
       <c r="A60" s="105"/>
       <c r="B60" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C60" s="109" t="s">
         <v>239</v>
@@ -25317,13 +25347,13 @@
         <v>371</v>
       </c>
       <c r="H60" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I60" s="109" t="s">
         <v>378</v>
       </c>
       <c r="J60" s="109" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K60" s="109" t="s">
         <v>404</v>
@@ -25332,7 +25362,7 @@
         <v>405</v>
       </c>
       <c r="M60" s="109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -25365,10 +25395,10 @@
         <v>406</v>
       </c>
       <c r="K61" s="109" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L61" s="109" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M61" s="109" t="s">
         <v>328</v>
@@ -25377,7 +25407,7 @@
     <row r="62" spans="1:13">
       <c r="A62" s="105"/>
       <c r="B62" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C62" s="109" t="s">
         <v>239</v>
@@ -25401,13 +25431,13 @@
         <v>382</v>
       </c>
       <c r="J62" s="109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K62" s="109" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L62" s="109" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M62" s="109" t="s">
         <v>381</v>
@@ -25424,7 +25454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -25435,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -25744,7 +25774,7 @@
         <v>250</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>275</v>
@@ -25874,10 +25904,10 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="56" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -25908,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
@@ -25961,7 +25991,7 @@
         <v>96</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D49" s="61" t="s">
         <v>8</v>
@@ -25995,7 +26025,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D51" s="61" t="s">
         <v>98</v>
@@ -26027,7 +26057,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D53" s="61" t="s">
         <v>99</v>
@@ -26331,7 +26361,7 @@
         <v>252</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D75" s="61" t="s">
         <v>276</v>
@@ -26439,10 +26469,10 @@
     </row>
     <row r="84" spans="1:4" ht="14.25">
       <c r="A84" s="56" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B84" s="84" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C84" s="53"/>
       <c r="D84" s="53"/>
@@ -26452,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C89" s="53"/>
       <c r="D89" s="53"/>
@@ -26462,17 +26492,17 @@
         <v>20</v>
       </c>
       <c r="B90" s="53" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C90" s="53"/>
       <c r="D90" s="53"/>
     </row>
     <row r="91" spans="1:4" ht="14.25">
       <c r="A91" s="56" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B91" s="84" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C91" s="53"/>
       <c r="D91" s="53"/>
@@ -26482,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C93" s="53"/>
       <c r="D93" s="53"/>
@@ -26492,17 +26522,17 @@
         <v>20</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C94" s="53"/>
       <c r="D94" s="53"/>
     </row>
     <row r="95" spans="1:4" ht="14.25">
       <c r="A95" s="56" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B95" s="84" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C95" s="53"/>
       <c r="D95" s="53"/>
@@ -26529,7 +26559,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -26607,7 +26637,7 @@
     <row r="3" spans="1:74" ht="12.75" customHeight="1">
       <c r="A3" s="64"/>
       <c r="B3" s="73" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>89</v>
@@ -26689,7 +26719,7 @@
     <row r="4" spans="1:74" ht="12.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="67" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>21</v>
@@ -26767,13 +26797,13 @@
         <v>209</v>
       </c>
       <c r="AB4" s="66" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC4" s="66" t="s">
         <v>211</v>
       </c>
       <c r="AD4" s="66" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AE4" s="66" t="s">
         <v>270</v>
@@ -26829,7 +26859,7 @@
     <row r="5" spans="1:74" ht="12.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>239</v>
@@ -26844,7 +26874,7 @@
         <v>264</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H5" s="68" t="s">
         <v>324</v>
@@ -26969,7 +26999,7 @@
     <row r="6" spans="1:74" ht="12.75" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>239</v>
@@ -26984,7 +27014,7 @@
         <v>264</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H6" s="68" t="s">
         <v>324</v>
@@ -27124,7 +27154,7 @@
         <v>264</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H7" s="68" t="s">
         <v>336</v>
@@ -27136,13 +27166,13 @@
         <v>338</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L7" s="68" t="s">
         <v>339</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N7" s="68" t="s">
         <v>340</v>
@@ -27249,7 +27279,7 @@
     <row r="8" spans="1:74" ht="12.75" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>239</v>
@@ -27264,7 +27294,7 @@
         <v>264</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H8" s="68" t="s">
         <v>350</v>
@@ -27404,7 +27434,7 @@
         <v>264</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H9" s="68" t="s">
         <v>214</v>
@@ -27685,7 +27715,7 @@
     <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>89</v>
@@ -28103,7 +28133,7 @@
         <v>264</v>
       </c>
       <c r="AD14" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AE14" s="68" t="s">
         <v>239</v>
@@ -28232,7 +28262,7 @@
         <v>264</v>
       </c>
       <c r="BU14" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV14" s="68">
         <v>1</v>
@@ -28454,7 +28484,7 @@
         <v>264</v>
       </c>
       <c r="BU15" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV15" s="68">
         <v>3</v>
@@ -28562,7 +28592,7 @@
         <v>79</v>
       </c>
       <c r="AI16" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ16" s="68">
         <v>1</v>
@@ -28676,7 +28706,7 @@
         <v>264</v>
       </c>
       <c r="BU16" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV16" s="68">
         <v>1</v>
@@ -28784,7 +28814,7 @@
         <v>79</v>
       </c>
       <c r="AI17" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ17" s="68">
         <v>1</v>
@@ -28898,7 +28928,7 @@
         <v>264</v>
       </c>
       <c r="BU17" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV17" s="68">
         <v>1</v>
@@ -29006,7 +29036,7 @@
         <v>79</v>
       </c>
       <c r="AI18" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ18" s="68">
         <v>1</v>
@@ -29120,7 +29150,7 @@
         <v>264</v>
       </c>
       <c r="BU18" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV18" s="68">
         <v>1</v>
@@ -29228,7 +29258,7 @@
         <v>79</v>
       </c>
       <c r="AI19" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AJ19" s="68">
         <v>1</v>
@@ -29342,7 +29372,7 @@
         <v>264</v>
       </c>
       <c r="BU19" s="68" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BV19" s="68">
         <v>1</v>
@@ -29507,7 +29537,7 @@
     <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="A22" s="72"/>
       <c r="B22" s="73" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>89</v>
@@ -30051,7 +30081,7 @@
         <v>264</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G28" s="68" t="s">
         <v>144</v>
@@ -30539,7 +30569,7 @@
         <v>88</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -30556,7 +30586,7 @@
     <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="A36" s="64"/>
       <c r="B36" s="73" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C36" s="74" t="s">
         <v>89</v>
@@ -30577,7 +30607,7 @@
     <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="A37" s="64"/>
       <c r="B37" s="67" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>21</v>
@@ -30606,7 +30636,7 @@
     <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="A38" s="64"/>
       <c r="B38" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C38" s="68" t="s">
         <v>239</v>
@@ -30624,7 +30654,7 @@
         <v>375</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I38" s="64"/>
       <c r="J38" s="64"/>
@@ -30635,7 +30665,7 @@
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="64"/>
       <c r="B39" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C39" s="68" t="s">
         <v>239</v>
@@ -30653,7 +30683,7 @@
         <v>375</v>
       </c>
       <c r="H39" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
@@ -30693,7 +30723,7 @@
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="A41" s="64"/>
       <c r="B41" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>239</v>
@@ -30711,7 +30741,7 @@
         <v>377</v>
       </c>
       <c r="H41" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I41" s="64"/>
       <c r="J41" s="64"/>
@@ -30771,7 +30801,7 @@
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="A45" s="64"/>
       <c r="B45" s="73" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="75"/>
@@ -30788,7 +30818,7 @@
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="A46" s="64"/>
       <c r="B46" s="67" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C46" s="66" t="s">
         <v>21</v>
@@ -30827,7 +30857,7 @@
     <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="A47" s="64"/>
       <c r="B47" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C47" s="68" t="s">
         <v>239</v>
@@ -30851,7 +30881,7 @@
         <v>378</v>
       </c>
       <c r="J47" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K47" s="68" t="s">
         <v>404</v>
@@ -30860,13 +30890,13 @@
         <v>405</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="A48" s="64"/>
       <c r="B48" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C48" s="68" t="s">
         <v>239</v>
@@ -30884,13 +30914,13 @@
         <v>371</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I48" s="68" t="s">
         <v>378</v>
       </c>
       <c r="J48" s="68" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K48" s="68" t="s">
         <v>404</v>
@@ -30899,7 +30929,7 @@
         <v>405</v>
       </c>
       <c r="M48" s="68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1">
@@ -30932,10 +30962,10 @@
         <v>406</v>
       </c>
       <c r="K49" s="68" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L49" s="68" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M49" s="68" t="s">
         <v>328</v>
@@ -30944,7 +30974,7 @@
     <row r="50" spans="1:13" ht="12.75" customHeight="1">
       <c r="A50" s="64"/>
       <c r="B50" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C50" s="68" t="s">
         <v>239</v>
@@ -30968,13 +30998,13 @@
         <v>382</v>
       </c>
       <c r="J50" s="68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K50" s="68" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L50" s="68" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M50" s="68" t="s">
         <v>381</v>
@@ -31102,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
@@ -31124,13 +31154,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" s="79">
         <v>104028</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
@@ -31138,19 +31168,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D5" s="76"/>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -31160,7 +31190,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
@@ -31170,13 +31200,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C10" s="79" t="s">
         <v>183</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
@@ -31184,19 +31214,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D11" s="76"/>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
@@ -31206,7 +31236,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -31216,13 +31246,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
@@ -31230,17 +31260,17 @@
         <v>20</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -31250,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
@@ -31260,13 +31290,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25">
@@ -31274,17 +31304,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>

--- a/test_物件管理/test_物件管理車室一覧.xlsx
+++ b/test_物件管理/test_物件管理車室一覧.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\elwj\git\AP\ap2\areaparking-test\test_物件管理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27765" windowHeight="13650" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="455">
   <si>
     <t>SQL</t>
   </si>
@@ -583,6 +588,7 @@
         <sz val="10"/>
         <color rgb="FF9E9E9E"/>
         <rFont val="MS Gothic"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ﾒｰｶｰ</t>
@@ -592,6 +598,7 @@
         <sz val="10"/>
         <color rgb="FF9E9E9E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>のタイヤ幅</t>
@@ -627,6 +634,7 @@
         <sz val="10"/>
         <color rgb="FF9E9E9E"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>計測の地上最低高</t>
@@ -659,6 +667,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注意事項</t>
@@ -668,7 +677,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -677,6 +687,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>備考一覧内容</t>
@@ -904,6 +915,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>★シティハウス志村三丁目ザ</t>
@@ -913,7 +925,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -922,6 +935,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>レジデンス</t>
@@ -942,6 +956,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2注意事項</t>
@@ -951,7 +966,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -960,6 +976,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>備考一覧内容</t>
@@ -1040,6 +1057,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3注意事項</t>
@@ -1049,7 +1067,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -1058,6 +1077,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>備考一覧内容</t>
@@ -1084,6 +1104,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4注意事項</t>
@@ -1093,7 +1114,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="128"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>・</t>
     </r>
@@ -1102,6 +1124,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>備考一覧内容</t>
@@ -1407,6 +1430,7 @@
         <sz val="9"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>操作</t>
@@ -1416,7 +1440,7 @@
         <sz val="9"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1425,6 +1449,7 @@
         <sz val="9"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一括変更</t>
@@ -1481,6 +1506,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>車室</t>
@@ -1490,6 +1516,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>删</t>
@@ -1508,6 +1535,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>确认</t>
@@ -1535,9 +1563,6 @@
     <t>001-002-001</t>
   </si>
   <si>
-    <t>IN_DB_001</t>
-  </si>
-  <si>
     <t>IN_FORM_001</t>
   </si>
   <si>
@@ -1566,9 +1591,6 @@
   </si>
   <si>
     <t>001-002-003</t>
-  </si>
-  <si>
-    <t>IN_DB_003</t>
   </si>
   <si>
     <t>IN_FORM_003</t>
@@ -1628,14 +1650,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,7 +1663,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1655,6 +1672,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1681,6 +1699,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1689,14 +1708,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1728,21 +1749,15 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1754,13 +1769,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1768,108 +1784,19 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1878,89 +1805,48 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9E9E9E"/>
       <name val="MS Gothic"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9E9E9E"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1975,19 +1861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,7 +1891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +1903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,168 +1915,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2213,285 +1943,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2528,7 +2016,7 @@
     <xf numFmtId="49" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2572,81 +2060,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="19">
+    <cellStyle name="ハイパーリンク 2" xfId="12"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="7"/>
+    <cellStyle name="標準 2 2" xfId="5"/>
+    <cellStyle name="標準 2 2 2" xfId="11"/>
+    <cellStyle name="標準 2 3" xfId="13"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="6"/>
+    <cellStyle name="標準 26" xfId="3"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 2" xfId="14"/>
+    <cellStyle name="標準 4" xfId="9"/>
+    <cellStyle name="標準 4 2" xfId="4"/>
+    <cellStyle name="標準 5" xfId="10"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="標準 3" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="標準 4 2" xfId="29"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="36"/>
-    <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="42"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="47"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="標準 4" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="51" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="52" builtinId="45"/>
-    <cellStyle name="標準 5" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="55" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="56" builtinId="49"/>
-    <cellStyle name="標準 2 2 2" xfId="57"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="59" builtinId="52"/>
-    <cellStyle name="ハイパーリンク 2" xfId="60"/>
-    <cellStyle name="標準 2 3" xfId="61"/>
-    <cellStyle name="標準 3 2" xfId="62"/>
-    <cellStyle name="常规 2" xfId="63"/>
-    <cellStyle name="常规 3" xfId="64"/>
-    <cellStyle name="桁区切り 2" xfId="65"/>
-    <cellStyle name="桁区切り 2 2" xfId="66"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="常规 3" xfId="16"/>
+    <cellStyle name="常规 3 2" xfId="8"/>
+    <cellStyle name="桁区切り 2" xfId="17"/>
+    <cellStyle name="桁区切り 2 2" xfId="18"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2931,21 +2375,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" spans="1:75" ht="14.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2403,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:75" ht="14.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2973,7 +2417,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:75" ht="14.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2430,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:75" ht="14.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3000,7 +2444,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:75" ht="14.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +2458,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:75" ht="14.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +2472,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:75" ht="14.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +2486,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="10" ht="14.25" spans="1:75">
+    <row r="10" spans="1:75" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -3234,7 +2678,7 @@
       <c r="BV11" s="17"/>
       <c r="BW11" s="17"/>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:75">
       <c r="A12" s="20"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
@@ -3456,7 +2900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:75">
       <c r="A13" s="17"/>
       <c r="B13" s="12" t="s">
         <v>85</v>
@@ -3674,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:75">
       <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>85</v>
@@ -3892,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:75">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>85</v>
@@ -4110,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:75">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>85</v>
@@ -4764,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
+    <row r="22" spans="1:74" ht="14.25">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -4777,7 +4221,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:74">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
         <v>128</v>
@@ -4794,7 +4238,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:74">
       <c r="A24" s="17"/>
       <c r="B24" s="11" t="s">
         <v>12</v>
@@ -4820,7 +4264,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:74">
       <c r="A25" s="17"/>
       <c r="B25" s="12" t="s">
         <v>85</v>
@@ -4844,7 +4288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:74">
       <c r="B26" s="12" t="s">
         <v>85</v>
       </c>
@@ -4867,7 +4311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:74">
       <c r="B27" s="12" t="s">
         <v>85</v>
       </c>
@@ -4890,7 +4334,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:74">
       <c r="A28" s="15"/>
       <c r="B28" s="12" t="s">
         <v>85</v>
@@ -4914,7 +4358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="1:74">
       <c r="B29" s="12" t="s">
         <v>116</v>
       </c>
@@ -4939,7 +4383,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:74">
       <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>85</v>
@@ -4969,7 +4413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:74">
       <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>85</v>
@@ -4996,7 +4440,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:74">
       <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>85</v>
@@ -5077,27 +4521,26 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:11">
       <c r="C38" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -5105,7 +4548,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
         <v>151</v>
@@ -5117,7 +4560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>154</v>
       </c>
@@ -5129,7 +4572,7 @@
       </c>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
@@ -5141,7 +4584,7 @@
       </c>
       <c r="D5" s="24"/>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>154</v>
       </c>
@@ -5155,7 +4598,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>154</v>
       </c>
@@ -5169,7 +4612,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>154</v>
       </c>
@@ -5183,7 +4626,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
@@ -5197,7 +4640,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>154</v>
       </c>
@@ -5211,7 +4654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>194</v>
       </c>
@@ -5219,7 +4662,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>218</v>
       </c>
@@ -5228,15 +4671,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5245,8 +4687,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="2" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:74" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -5254,7 +4696,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="3" spans="1:74" ht="12.75" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>221</v>
       </c>
@@ -5265,7 +4707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="4" spans="1:74" ht="12.75" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
@@ -5363,7 +4805,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="5" spans="1:74" ht="12.75" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>257</v>
       </c>
@@ -5461,7 +4903,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="6" spans="1:74" ht="12.75" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>365</v>
       </c>
@@ -5559,7 +5001,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="7" spans="1:74" ht="12.75" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>366</v>
       </c>
@@ -5657,7 +5099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="8" spans="1:74" ht="12.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>371</v>
       </c>
@@ -5755,7 +5197,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="9" spans="1:74" ht="12.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
         <v>367</v>
@@ -5895,12 +5337,12 @@
       <c r="BU9" s="15"/>
       <c r="BV9" s="15"/>
     </row>
-    <row r="10" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="10" spans="1:74" ht="12.75" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="11" spans="1:74" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -5980,7 +5422,7 @@
       <c r="BU11" s="17"/>
       <c r="BV11" s="17"/>
     </row>
-    <row r="12" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
         <v>256</v>
@@ -6092,7 +5534,7 @@
       <c r="BU12" s="17"/>
       <c r="BV12" s="17"/>
     </row>
-    <row r="13" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="13" spans="1:74" ht="12.75" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -6314,7 +5756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="14" spans="1:74" ht="12.75" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>234</v>
@@ -6536,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="15" spans="1:74" ht="12.75" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>234</v>
@@ -6758,7 +6200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="16" spans="1:74" ht="12.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>234</v>
@@ -6980,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="17" spans="1:74" ht="12.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
         <v>234</v>
@@ -7202,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="18" spans="1:74" ht="12.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="12" t="s">
         <v>234</v>
@@ -7424,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="19" spans="1:74" ht="12.75" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>234</v>
@@ -7646,11 +7088,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="12.75" customHeight="1" spans="2:3">
+    <row r="20" spans="1:74" ht="12.75" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" customFormat="1" ht="12.75" customHeight="1" spans="1:7">
+    <row r="21" spans="1:74" ht="12.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -7663,7 +7105,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>258</v>
@@ -7745,7 +7187,7 @@
       <c r="BU22" s="17"/>
       <c r="BV22" s="17"/>
     </row>
-    <row r="23" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="23" spans="1:74" ht="12.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="11" t="s">
         <v>12</v>
@@ -7769,7 +7211,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="24" spans="1:74" ht="12.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="12" t="s">
         <v>234</v>
@@ -7793,7 +7235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="25" spans="1:74" ht="12.75" customHeight="1">
       <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
@@ -7816,7 +7258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="26" spans="1:74" ht="12.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>234</v>
       </c>
@@ -7839,7 +7281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="27" spans="1:74" ht="12.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>234</v>
       </c>
@@ -7862,7 +7304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="12.75" customHeight="1" spans="2:10">
+    <row r="28" spans="1:74" ht="12.75" customHeight="1">
       <c r="B28" s="12" t="s">
         <v>234</v>
       </c>
@@ -7887,7 +7329,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" customFormat="1" ht="12.75" customHeight="1" spans="1:10">
+    <row r="29" spans="1:74" ht="12.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
         <v>234</v>
@@ -7917,7 +7359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="30" spans="1:74" ht="12.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>234</v>
@@ -7941,7 +7383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="31" spans="1:74" ht="12.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>234</v>
@@ -7965,7 +7407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="32" spans="1:74" ht="12.75" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>234</v>
@@ -7989,7 +7431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="12" t="s">
         <v>234</v>
@@ -8013,11 +7455,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="12.75" customHeight="1" spans="2:3">
+    <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>8</v>
       </c>
@@ -8025,7 +7467,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="B36" s="18" t="s">
         <v>262</v>
       </c>
@@ -8036,7 +7478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="B37" s="10" t="s">
         <v>222</v>
       </c>
@@ -8059,7 +7501,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>257</v>
       </c>
@@ -8082,7 +7524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>365</v>
       </c>
@@ -8105,7 +7547,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>366</v>
       </c>
@@ -8128,7 +7570,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="B41" s="12" t="s">
         <v>371</v>
       </c>
@@ -8151,7 +7593,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
+    <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
         <v>367</v>
@@ -8180,8 +7622,8 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="44" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>8</v>
       </c>
@@ -8189,14 +7631,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>266</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="B46" s="10" t="s">
         <v>222</v>
       </c>
@@ -8234,7 +7676,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
@@ -8272,7 +7714,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="B48" s="12" t="s">
         <v>365</v>
       </c>
@@ -8310,7 +7752,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="49" spans="2:13" ht="12.75" customHeight="1">
       <c r="B49" s="12" t="s">
         <v>366</v>
       </c>
@@ -8348,7 +7790,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="50" spans="2:13" ht="12.75" customHeight="1">
       <c r="B50" s="12" t="s">
         <v>371</v>
       </c>
@@ -8386,27 +7828,26 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="12.75" customHeight="1" spans="2:2">
+    <row r="51" spans="2:13" ht="12.75" customHeight="1">
       <c r="B51" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -8414,8 +7855,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>194</v>
       </c>
@@ -8425,7 +7865,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>218</v>
       </c>
@@ -8434,15 +7874,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8451,8 +7890,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="2" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:74" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -8460,7 +7899,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="3" spans="1:74" ht="12.75" customHeight="1">
       <c r="B3" t="s">
         <v>221</v>
       </c>
@@ -8471,7 +7910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="4" spans="1:74" ht="12.75" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
@@ -8569,7 +8008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="5" spans="1:74" ht="12.75" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>365</v>
       </c>
@@ -8667,7 +8106,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="6" spans="1:74" ht="12.75" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>366</v>
       </c>
@@ -8765,7 +8204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="7" spans="1:74" ht="12.75" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>371</v>
       </c>
@@ -8863,7 +8302,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="8" spans="1:74" ht="12.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>367</v>
       </c>
@@ -8961,8 +8400,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="10" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="9" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:74" ht="12.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -8970,7 +8409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="12.75" customHeight="1" spans="2:19">
+    <row r="11" spans="1:74" ht="12.75" customHeight="1">
       <c r="B11" t="s">
         <v>256</v>
       </c>
@@ -9026,7 +8465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
@@ -9247,7 +8686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="13" spans="1:74" ht="12.75" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>234</v>
       </c>
@@ -9468,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="14" spans="1:74" ht="12.75" customHeight="1">
       <c r="B14" s="12" t="s">
         <v>234</v>
       </c>
@@ -9689,7 +9128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="15" spans="1:74" ht="12.75" customHeight="1">
       <c r="B15" s="12" t="s">
         <v>234</v>
       </c>
@@ -9910,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="16" spans="1:74" ht="12.75" customHeight="1">
       <c r="B16" s="12" t="s">
         <v>234</v>
       </c>
@@ -10131,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="17" spans="1:74" ht="12.75" customHeight="1">
       <c r="B17" s="12" t="s">
         <v>234</v>
       </c>
@@ -10352,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="12.75" customHeight="1" spans="2:74">
+    <row r="18" spans="1:74" ht="12.75" customHeight="1">
       <c r="B18" s="12" t="s">
         <v>234</v>
       </c>
@@ -10573,8 +10012,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="20" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="19" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:74" ht="12.75" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
@@ -10582,7 +10021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="21" spans="1:74" ht="12.75" customHeight="1">
       <c r="B21" t="s">
         <v>258</v>
       </c>
@@ -10593,7 +10032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="B22" s="11" t="s">
         <v>12</v>
       </c>
@@ -10616,7 +10055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="23" spans="1:74" ht="12.75" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>234</v>
       </c>
@@ -10639,7 +10078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="24" spans="1:74" ht="12.75" customHeight="1">
       <c r="B24" s="12" t="s">
         <v>234</v>
       </c>
@@ -10662,7 +10101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="25" spans="1:74" ht="12.75" customHeight="1">
       <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
@@ -10685,7 +10124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="26" spans="1:74" ht="12.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>234</v>
       </c>
@@ -10708,7 +10147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="27" spans="1:74" ht="12.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>234</v>
       </c>
@@ -10731,7 +10170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="12.75" customHeight="1" spans="2:10">
+    <row r="28" spans="1:74" ht="12.75" customHeight="1">
       <c r="B28" s="12" t="s">
         <v>234</v>
       </c>
@@ -10760,7 +10199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="29" spans="1:74" ht="12.75" customHeight="1">
       <c r="B29" s="12" t="s">
         <v>234</v>
       </c>
@@ -10783,7 +10222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="30" spans="1:74" ht="12.75" customHeight="1">
       <c r="B30" s="12" t="s">
         <v>234</v>
       </c>
@@ -10806,7 +10245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="31" spans="1:74" ht="12.75" customHeight="1">
       <c r="B31" s="12" t="s">
         <v>234</v>
       </c>
@@ -10829,7 +10268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="32" spans="1:74" ht="12.75" customHeight="1">
       <c r="B32" s="12" t="s">
         <v>234</v>
       </c>
@@ -10852,8 +10291,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="34" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="33" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>8</v>
       </c>
@@ -10861,7 +10300,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="B35" t="s">
         <v>262</v>
       </c>
@@ -10872,7 +10311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="B36" s="10" t="s">
         <v>222</v>
       </c>
@@ -10895,7 +10334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="B37" s="12" t="s">
         <v>365</v>
       </c>
@@ -10918,7 +10357,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>366</v>
       </c>
@@ -10941,7 +10380,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>371</v>
       </c>
@@ -10964,7 +10403,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>367</v>
       </c>
@@ -10987,8 +10426,8 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="42" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>8</v>
       </c>
@@ -10996,12 +10435,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="12.75" customHeight="1" spans="2:2">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1">
       <c r="B43" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="B44" s="10" t="s">
         <v>222</v>
       </c>
@@ -11039,7 +10478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="B45" s="12" t="s">
         <v>365</v>
       </c>
@@ -11077,7 +10516,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="B46" s="12" t="s">
         <v>366</v>
       </c>
@@ -11115,7 +10554,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="B47" s="12" t="s">
         <v>371</v>
       </c>
@@ -11153,59 +10592,58 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="49" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="50" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="51" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="52" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="53" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="54" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="55" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="56" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="57" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="58" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="59" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="60" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="61" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="62" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="63" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="64" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="65" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="66" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="67" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="68" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="69" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="70" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="71" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="72" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="73" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="74" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="75" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="76" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="77" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="78" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="79" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="80" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="81" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="82" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="83" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="84" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="85" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="86" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="87" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="2" sqref="C5 C7 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11247,137 +10685,126 @@
       <c r="B5" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:9">
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>456</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -11385,7 +10812,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>149</v>
       </c>
@@ -11393,7 +10820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -11405,7 +10832,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
@@ -11419,7 +10846,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>154</v>
       </c>
@@ -11433,7 +10860,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>154</v>
       </c>
@@ -11447,7 +10874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>154</v>
       </c>
@@ -11461,7 +10888,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>154</v>
       </c>
@@ -11475,7 +10902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
@@ -11489,7 +10916,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>154</v>
       </c>
@@ -11503,7 +10930,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="14" t="s">
         <v>154</v>
       </c>
@@ -11517,7 +10944,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="14" t="s">
         <v>154</v>
       </c>
@@ -11531,7 +10958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>154</v>
       </c>
@@ -11545,7 +10972,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>154</v>
       </c>
@@ -11559,7 +10986,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
@@ -11573,7 +11000,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>154</v>
       </c>
@@ -11587,7 +11014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="14" t="s">
         <v>154</v>
       </c>
@@ -11601,7 +11028,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>154</v>
       </c>
@@ -11615,7 +11042,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
@@ -11629,7 +11056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>154</v>
       </c>
@@ -11643,7 +11070,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>154</v>
       </c>
@@ -11657,7 +11084,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -11671,7 +11098,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="14" t="s">
         <v>194</v>
       </c>
@@ -11679,11 +11106,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="14" t="s">
         <v>154</v>
       </c>
@@ -11697,7 +11124,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="14" t="s">
         <v>194</v>
       </c>
@@ -11705,7 +11132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="14" t="s">
         <v>154</v>
       </c>
@@ -11719,7 +11146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="14" t="s">
         <v>154</v>
       </c>
@@ -11733,7 +11160,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:4">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="14" t="s">
         <v>154</v>
       </c>
@@ -11747,7 +11174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:4">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="14" t="s">
         <v>154</v>
       </c>
@@ -11761,7 +11188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:4">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -11775,7 +11202,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:4">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="14" t="s">
         <v>154</v>
       </c>
@@ -11789,7 +11216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:4">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="14" t="s">
         <v>194</v>
       </c>
@@ -11800,7 +11227,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="14" t="s">
         <v>218</v>
       </c>
@@ -11809,15 +11236,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BV39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11841,7 +11267,7 @@
     <col min="14" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:74" ht="14.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -11849,7 +11275,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:74">
       <c r="B3" s="18" t="s">
         <v>221</v>
       </c>
@@ -11860,7 +11286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:33">
+    <row r="4" spans="1:74">
       <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
@@ -11958,7 +11384,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="2:33">
+    <row r="5" spans="1:74">
       <c r="B5" s="12" t="s">
         <v>233</v>
       </c>
@@ -12056,10 +11482,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:74">
       <c r="B6" s="17"/>
     </row>
-    <row r="7" ht="14.25" spans="1:74">
+    <row r="7" spans="1:74" ht="14.25">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -12249,7 +11675,7 @@
       <c r="BU8" s="17"/>
       <c r="BV8" s="17"/>
     </row>
-    <row r="9" ht="13.5" spans="1:74">
+    <row r="9" spans="1:74" ht="13.5">
       <c r="A9" s="20"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -13137,7 +12563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="2:74">
+    <row r="13" spans="1:74" s="17" customFormat="1">
       <c r="B13" s="12" t="s">
         <v>234</v>
       </c>
@@ -13358,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="2:74">
+    <row r="14" spans="1:74" s="17" customFormat="1">
       <c r="B14" s="12" t="s">
         <v>234</v>
       </c>
@@ -13579,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="1" ht="13.5" spans="1:74">
+    <row r="15" spans="1:74" s="20" customFormat="1" ht="13.5">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>234</v>
@@ -13801,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" spans="1:13" ht="14.25">
       <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
@@ -13814,7 +13240,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" s="17" customFormat="1" spans="2:13">
+    <row r="18" spans="1:13" s="17" customFormat="1">
       <c r="B18" s="18" t="s">
         <v>258</v>
       </c>
@@ -13828,7 +13254,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="17"/>
       <c r="B19" s="11" t="s">
         <v>12</v>
@@ -13852,7 +13278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="17"/>
       <c r="B20" s="12" t="s">
         <v>234</v>
@@ -13876,7 +13302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:13">
       <c r="B21" s="12" t="s">
         <v>234</v>
       </c>
@@ -13899,7 +13325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:13">
       <c r="B22" s="12" t="s">
         <v>234</v>
       </c>
@@ -13922,7 +13348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:13">
       <c r="B23" s="12" t="s">
         <v>234</v>
       </c>
@@ -13945,7 +13371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="1:13">
       <c r="B24" s="12" t="s">
         <v>234</v>
       </c>
@@ -13970,7 +13396,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:13">
       <c r="A25" s="17"/>
       <c r="B25" s="12" t="s">
         <v>234</v>
@@ -14000,7 +13426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:13">
       <c r="A26" s="17"/>
       <c r="B26" s="12" t="s">
         <v>234</v>
@@ -14024,7 +13450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13">
       <c r="A27" s="17"/>
       <c r="B27" s="12" t="s">
         <v>234</v>
@@ -14048,7 +13474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:13">
       <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>234</v>
@@ -14072,7 +13498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
         <v>234</v>
@@ -14096,7 +13522,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:13" ht="14.25">
       <c r="A31" s="9" t="s">
         <v>8</v>
       </c>
@@ -14104,7 +13530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:13">
       <c r="B32" s="18" t="s">
         <v>262</v>
       </c>
@@ -14115,7 +13541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:13">
       <c r="B33" s="10" t="s">
         <v>222</v>
       </c>
@@ -14138,7 +13564,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:13">
       <c r="B34" s="12" t="s">
         <v>233</v>
       </c>
@@ -14161,7 +13587,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:13" ht="14.25">
       <c r="A36" s="9" t="s">
         <v>8</v>
       </c>
@@ -14169,7 +13595,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:13">
       <c r="B37" s="18" t="s">
         <v>266</v>
       </c>
@@ -14180,7 +13606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="1:13">
       <c r="B38" s="10" t="s">
         <v>222</v>
       </c>
@@ -14218,7 +13644,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="1:13">
       <c r="B39" s="12" t="s">
         <v>233</v>
       </c>
@@ -14257,24 +13683,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -14282,7 +13707,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>149</v>
       </c>
@@ -14290,7 +13715,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -14302,7 +13727,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
@@ -14316,7 +13741,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>154</v>
       </c>
@@ -14330,7 +13755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>154</v>
       </c>
@@ -14344,7 +13769,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>154</v>
       </c>
@@ -14358,7 +13783,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>154</v>
       </c>
@@ -14372,7 +13797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
@@ -14386,7 +13811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>154</v>
       </c>
@@ -14400,7 +13825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="14" t="s">
         <v>154</v>
       </c>
@@ -14414,7 +13839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="14" t="s">
         <v>154</v>
       </c>
@@ -14428,7 +13853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>154</v>
       </c>
@@ -14442,7 +13867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>154</v>
       </c>
@@ -14456,7 +13881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
@@ -14470,7 +13895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>154</v>
       </c>
@@ -14484,7 +13909,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="14" t="s">
         <v>154</v>
       </c>
@@ -14498,7 +13923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>154</v>
       </c>
@@ -14512,7 +13937,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:6" ht="14.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
@@ -14526,7 +13951,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:6" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>154</v>
       </c>
@@ -14540,7 +13965,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:6" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>154</v>
       </c>
@@ -14554,7 +13979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:4">
+    <row r="23" spans="1:6" ht="14.25">
       <c r="A23" s="14" t="s">
         <v>154</v>
       </c>
@@ -14568,7 +13993,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:6" ht="14.25">
       <c r="A25" s="14" t="s">
         <v>194</v>
       </c>
@@ -14576,7 +14001,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:6">
+    <row r="26" spans="1:6" ht="14.25">
       <c r="A26" s="14" t="s">
         <v>194</v>
       </c>
@@ -14587,10 +14012,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:6">
       <c r="B27" s="15"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:6" ht="14.25">
       <c r="A28" s="14" t="s">
         <v>154</v>
       </c>
@@ -14604,7 +14029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:4">
+    <row r="29" spans="1:6" ht="14.25">
       <c r="A29" s="14" t="s">
         <v>154</v>
       </c>
@@ -14618,7 +14043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:6" ht="14.25">
       <c r="A33" s="14" t="s">
         <v>194</v>
       </c>
@@ -14626,7 +14051,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:6" ht="14.25">
       <c r="A34" s="14" t="s">
         <v>194</v>
       </c>
@@ -14634,7 +14059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:6">
+    <row r="35" spans="1:6" ht="14.25">
       <c r="A35" s="14" t="s">
         <v>194</v>
       </c>
@@ -14645,7 +14070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:4">
+    <row r="37" spans="1:6" ht="14.25">
       <c r="A37" s="14" t="s">
         <v>154</v>
       </c>
@@ -14659,7 +14084,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:4">
+    <row r="38" spans="1:6" ht="14.25">
       <c r="A38" s="14" t="s">
         <v>154</v>
       </c>
@@ -14673,7 +14098,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:4">
+    <row r="39" spans="1:6" ht="14.25">
       <c r="A39" s="14" t="s">
         <v>154</v>
       </c>
@@ -14687,7 +14112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:4">
+    <row r="40" spans="1:6" ht="14.25">
       <c r="A40" s="14" t="s">
         <v>154</v>
       </c>
@@ -14701,7 +14126,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:4">
+    <row r="41" spans="1:6" ht="14.25">
       <c r="A41" s="14" t="s">
         <v>154</v>
       </c>
@@ -14715,7 +14140,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:4">
+    <row r="42" spans="1:6" ht="14.25">
       <c r="A42" s="14" t="s">
         <v>154</v>
       </c>
@@ -14729,7 +14154,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:4">
+    <row r="44" spans="1:6" ht="14.25">
       <c r="A44" s="14" t="s">
         <v>154</v>
       </c>
@@ -14743,7 +14168,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:4">
+    <row r="45" spans="1:6" ht="14.25">
       <c r="A45" s="14" t="s">
         <v>154</v>
       </c>
@@ -14757,7 +14182,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:4">
+    <row r="46" spans="1:6" ht="14.25">
       <c r="A46" s="14" t="s">
         <v>154</v>
       </c>
@@ -14771,7 +14196,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:4">
+    <row r="47" spans="1:6" ht="14.25">
       <c r="A47" s="14" t="s">
         <v>154</v>
       </c>
@@ -14785,7 +14210,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:4">
+    <row r="48" spans="1:6" ht="14.25">
       <c r="A48" s="14" t="s">
         <v>154</v>
       </c>
@@ -14799,7 +14224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:4">
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="14" t="s">
         <v>154</v>
       </c>
@@ -14813,7 +14238,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4" ht="14.25">
       <c r="A51" s="14" t="s">
         <v>154</v>
       </c>
@@ -14827,7 +14252,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:4">
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="14" t="s">
         <v>154</v>
       </c>
@@ -14841,7 +14266,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:4">
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="14" t="s">
         <v>154</v>
       </c>
@@ -14855,7 +14280,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:4">
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="14" t="s">
         <v>154</v>
       </c>
@@ -14869,7 +14294,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:4">
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="14" t="s">
         <v>154</v>
       </c>
@@ -14883,7 +14308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:4">
+    <row r="56" spans="1:4" ht="14.25">
       <c r="A56" s="14" t="s">
         <v>154</v>
       </c>
@@ -14897,7 +14322,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:4">
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="14" t="s">
         <v>194</v>
       </c>
@@ -14908,7 +14333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
+    <row r="59" spans="1:4" ht="14.25">
       <c r="A59" s="14" t="s">
         <v>218</v>
       </c>
@@ -14916,7 +14341,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:4">
+    <row r="60" spans="1:4" ht="14.25">
       <c r="A60" s="14" t="s">
         <v>194</v>
       </c>
@@ -14927,7 +14352,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:4">
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="14" t="s">
         <v>194</v>
       </c>
@@ -14938,7 +14363,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:2">
+    <row r="68" spans="1:4" ht="14.25">
       <c r="A68" s="14" t="s">
         <v>147</v>
       </c>
@@ -14946,7 +14371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
+    <row r="70" spans="1:4" ht="14.25">
       <c r="A70" s="14" t="s">
         <v>149</v>
       </c>
@@ -14954,7 +14379,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:4">
+    <row r="71" spans="1:4" ht="14.25">
       <c r="A71" s="14"/>
       <c r="B71" s="16" t="s">
         <v>151</v>
@@ -14966,7 +14391,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" ht="14.25" spans="1:4">
+    <row r="72" spans="1:4" ht="14.25">
       <c r="A72" s="14" t="s">
         <v>154</v>
       </c>
@@ -14980,7 +14405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:4">
+    <row r="73" spans="1:4" ht="14.25">
       <c r="A73" s="14" t="s">
         <v>154</v>
       </c>
@@ -14994,7 +14419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" ht="14.25" spans="1:4">
+    <row r="74" spans="1:4" ht="14.25">
       <c r="A74" s="14" t="s">
         <v>154</v>
       </c>
@@ -15008,7 +14433,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:4">
+    <row r="75" spans="1:4" ht="14.25">
       <c r="A75" s="14" t="s">
         <v>154</v>
       </c>
@@ -15022,7 +14447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:4">
+    <row r="76" spans="1:4" ht="14.25">
       <c r="A76" s="14" t="s">
         <v>154</v>
       </c>
@@ -15036,7 +14461,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:4">
+    <row r="77" spans="1:4" ht="14.25">
       <c r="A77" s="14" t="s">
         <v>154</v>
       </c>
@@ -15050,7 +14475,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" customFormat="1" ht="14.25" spans="1:4">
+    <row r="78" spans="1:4" ht="14.25">
       <c r="A78" s="14" t="s">
         <v>154</v>
       </c>
@@ -15064,7 +14489,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" customFormat="1" ht="14.25" spans="1:4">
+    <row r="79" spans="1:4" ht="14.25">
       <c r="A79" s="14" t="s">
         <v>154</v>
       </c>
@@ -15078,7 +14503,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" customFormat="1" ht="14.25" spans="1:4">
+    <row r="80" spans="1:4" ht="14.25">
       <c r="A80" s="14" t="s">
         <v>154</v>
       </c>
@@ -15092,7 +14517,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="14.25" spans="1:4">
+    <row r="81" spans="1:4" ht="14.25">
       <c r="A81" s="14" t="s">
         <v>154</v>
       </c>
@@ -15106,7 +14531,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="14.25" spans="1:4">
+    <row r="82" spans="1:4" ht="14.25">
       <c r="A82" s="14" t="s">
         <v>154</v>
       </c>
@@ -15120,7 +14545,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:4">
+    <row r="83" spans="1:4" ht="14.25">
       <c r="A83" s="14" t="s">
         <v>154</v>
       </c>
@@ -15134,7 +14559,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:4">
+    <row r="84" spans="1:4" ht="14.25">
       <c r="A84" s="14" t="s">
         <v>154</v>
       </c>
@@ -15148,7 +14573,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" ht="14.25" spans="1:4">
+    <row r="85" spans="1:4" ht="14.25">
       <c r="A85" s="14" t="s">
         <v>154</v>
       </c>
@@ -15162,7 +14587,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" ht="14.25" spans="1:4">
+    <row r="86" spans="1:4" ht="14.25">
       <c r="A86" s="14" t="s">
         <v>154</v>
       </c>
@@ -15176,7 +14601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" ht="14.25" spans="1:4">
+    <row r="87" spans="1:4" ht="14.25">
       <c r="A87" s="14" t="s">
         <v>154</v>
       </c>
@@ -15190,7 +14615,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" ht="14.25" spans="1:4">
+    <row r="88" spans="1:4" ht="14.25">
       <c r="A88" s="14" t="s">
         <v>154</v>
       </c>
@@ -15204,7 +14629,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:4">
+    <row r="89" spans="1:4" ht="14.25">
       <c r="A89" s="14" t="s">
         <v>154</v>
       </c>
@@ -15218,7 +14643,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:4">
+    <row r="90" spans="1:4" ht="14.25">
       <c r="A90" s="14" t="s">
         <v>154</v>
       </c>
@@ -15232,7 +14657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:2">
+    <row r="92" spans="1:4" ht="14.25">
       <c r="A92" s="14" t="s">
         <v>194</v>
       </c>
@@ -15240,11 +14665,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:4">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
     </row>
-    <row r="94" ht="14.25" spans="1:4">
+    <row r="94" spans="1:4" ht="14.25">
       <c r="A94" s="14" t="s">
         <v>154</v>
       </c>
@@ -15258,7 +14683,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
+    <row r="96" spans="1:4" ht="14.25">
       <c r="A96" s="14" t="s">
         <v>194</v>
       </c>
@@ -15266,7 +14691,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" ht="14.25" spans="1:4">
+    <row r="98" spans="1:4" ht="14.25">
       <c r="A98" s="14" t="s">
         <v>154</v>
       </c>
@@ -15280,7 +14705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:4">
+    <row r="99" spans="1:4" ht="14.25">
       <c r="A99" s="14" t="s">
         <v>154</v>
       </c>
@@ -15294,7 +14719,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" ht="14.25" spans="1:4">
+    <row r="100" spans="1:4" ht="14.25">
       <c r="A100" s="14" t="s">
         <v>154</v>
       </c>
@@ -15308,7 +14733,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:4">
+    <row r="101" spans="1:4" ht="14.25">
       <c r="A101" s="14" t="s">
         <v>154</v>
       </c>
@@ -15322,7 +14747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" ht="14.25" spans="1:4">
+    <row r="102" spans="1:4" ht="14.25">
       <c r="A102" s="14" t="s">
         <v>154</v>
       </c>
@@ -15336,7 +14761,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:4">
+    <row r="103" spans="1:4" ht="14.25">
       <c r="A103" s="14" t="s">
         <v>154</v>
       </c>
@@ -15350,7 +14775,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:4">
+    <row r="105" spans="1:4" ht="14.25">
       <c r="A105" s="14" t="s">
         <v>194</v>
       </c>
@@ -15361,7 +14786,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
+    <row r="110" spans="1:4" ht="14.25">
       <c r="A110" s="14" t="s">
         <v>147</v>
       </c>
@@ -15369,7 +14794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:2">
+    <row r="112" spans="1:4" ht="14.25">
       <c r="A112" s="14" t="s">
         <v>149</v>
       </c>
@@ -15377,7 +14802,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:4">
+    <row r="113" spans="1:4" ht="14.25">
       <c r="A113" s="14"/>
       <c r="B113" s="16" t="s">
         <v>151</v>
@@ -15389,7 +14814,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:4">
+    <row r="114" spans="1:4" ht="14.25">
       <c r="A114" s="14" t="s">
         <v>154</v>
       </c>
@@ -15403,7 +14828,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:4">
+    <row r="115" spans="1:4" ht="14.25">
       <c r="A115" s="14" t="s">
         <v>154</v>
       </c>
@@ -15417,7 +14842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:4">
+    <row r="116" spans="1:4" ht="14.25">
       <c r="A116" s="14" t="s">
         <v>154</v>
       </c>
@@ -15431,7 +14856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:4">
+    <row r="117" spans="1:4" ht="14.25">
       <c r="A117" s="14" t="s">
         <v>154</v>
       </c>
@@ -15445,7 +14870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" ht="14.25" spans="1:4">
+    <row r="118" spans="1:4" ht="14.25">
       <c r="A118" s="14" t="s">
         <v>154</v>
       </c>
@@ -15459,7 +14884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" ht="14.25" spans="1:4">
+    <row r="119" spans="1:4" ht="14.25">
       <c r="A119" s="14" t="s">
         <v>154</v>
       </c>
@@ -15473,7 +14898,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="1:4">
+    <row r="120" spans="1:4" ht="14.25">
       <c r="A120" s="14" t="s">
         <v>154</v>
       </c>
@@ -15487,7 +14912,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="1:4">
+    <row r="121" spans="1:4" ht="14.25">
       <c r="A121" s="14" t="s">
         <v>154</v>
       </c>
@@ -15501,7 +14926,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" ht="14.25" spans="1:4">
+    <row r="122" spans="1:4" ht="14.25">
       <c r="A122" s="14" t="s">
         <v>154</v>
       </c>
@@ -15515,7 +14940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="1:4">
+    <row r="123" spans="1:4" ht="14.25">
       <c r="A123" s="14" t="s">
         <v>154</v>
       </c>
@@ -15529,7 +14954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" ht="14.25" spans="1:4">
+    <row r="124" spans="1:4" ht="14.25">
       <c r="A124" s="14" t="s">
         <v>154</v>
       </c>
@@ -15543,7 +14968,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:4">
+    <row r="125" spans="1:4" ht="14.25">
       <c r="A125" s="14" t="s">
         <v>154</v>
       </c>
@@ -15557,7 +14982,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:4">
+    <row r="126" spans="1:4" ht="14.25">
       <c r="A126" s="14" t="s">
         <v>154</v>
       </c>
@@ -15571,7 +14996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:4">
+    <row r="127" spans="1:4" ht="14.25">
       <c r="A127" s="14" t="s">
         <v>154</v>
       </c>
@@ -15585,7 +15010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="1:4">
+    <row r="128" spans="1:4" ht="14.25">
       <c r="A128" s="14" t="s">
         <v>154</v>
       </c>
@@ -15599,7 +15024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="1:4">
+    <row r="129" spans="1:4" ht="14.25">
       <c r="A129" s="14" t="s">
         <v>154</v>
       </c>
@@ -15613,7 +15038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" ht="14.25" spans="1:4">
+    <row r="130" spans="1:4" ht="14.25">
       <c r="A130" s="14" t="s">
         <v>154</v>
       </c>
@@ -15627,7 +15052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="1:4">
+    <row r="131" spans="1:4" ht="14.25">
       <c r="A131" s="14" t="s">
         <v>154</v>
       </c>
@@ -15641,7 +15066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="1:4">
+    <row r="132" spans="1:4" ht="14.25">
       <c r="A132" s="14" t="s">
         <v>154</v>
       </c>
@@ -15655,7 +15080,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="1:2">
+    <row r="135" spans="1:4" ht="14.25">
       <c r="A135" s="14" t="s">
         <v>194</v>
       </c>
@@ -15663,11 +15088,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:4">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
     </row>
-    <row r="137" ht="14.25" spans="1:4">
+    <row r="137" spans="1:4" ht="14.25">
       <c r="A137" s="14" t="s">
         <v>154</v>
       </c>
@@ -15681,7 +15106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="1:2">
+    <row r="139" spans="1:4" ht="14.25">
       <c r="A139" s="14" t="s">
         <v>194</v>
       </c>
@@ -15689,7 +15114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="1:4">
+    <row r="141" spans="1:4" ht="14.25">
       <c r="A141" s="14" t="s">
         <v>154</v>
       </c>
@@ -15703,7 +15128,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="142" ht="14.25" spans="1:4">
+    <row r="142" spans="1:4" ht="14.25">
       <c r="A142" s="14" t="s">
         <v>154</v>
       </c>
@@ -15717,7 +15142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="143" ht="14.25" spans="1:4">
+    <row r="143" spans="1:4" ht="14.25">
       <c r="A143" s="14" t="s">
         <v>154</v>
       </c>
@@ -15731,7 +15156,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="1:4">
+    <row r="144" spans="1:4" ht="14.25">
       <c r="A144" s="14" t="s">
         <v>154</v>
       </c>
@@ -15745,7 +15170,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" ht="14.25" spans="1:4">
+    <row r="145" spans="1:4" ht="14.25">
       <c r="A145" s="14" t="s">
         <v>154</v>
       </c>
@@ -15759,7 +15184,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="1:4">
+    <row r="146" spans="1:4" ht="14.25">
       <c r="A146" s="14" t="s">
         <v>154</v>
       </c>
@@ -15773,7 +15198,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="1:4">
+    <row r="149" spans="1:4" ht="14.25">
       <c r="A149" s="14" t="s">
         <v>194</v>
       </c>
@@ -15784,7 +15209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="153" ht="14.25" spans="1:2">
+    <row r="153" spans="1:4" ht="14.25">
       <c r="A153" s="14" t="s">
         <v>147</v>
       </c>
@@ -15792,7 +15217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" ht="14.25" spans="1:2">
+    <row r="155" spans="1:4" ht="14.25">
       <c r="A155" s="14" t="s">
         <v>149</v>
       </c>
@@ -15800,7 +15225,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" ht="14.25" spans="1:4">
+    <row r="156" spans="1:4" ht="14.25">
       <c r="A156" s="14"/>
       <c r="B156" s="16" t="s">
         <v>151</v>
@@ -15812,7 +15237,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" ht="14.25" spans="1:4">
+    <row r="157" spans="1:4" ht="14.25">
       <c r="A157" s="14" t="s">
         <v>154</v>
       </c>
@@ -15826,7 +15251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" ht="14.25" spans="1:4">
+    <row r="158" spans="1:4" ht="14.25">
       <c r="A158" s="14" t="s">
         <v>154</v>
       </c>
@@ -15840,7 +15265,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" ht="14.25" spans="1:4">
+    <row r="159" spans="1:4" ht="14.25">
       <c r="A159" s="14" t="s">
         <v>154</v>
       </c>
@@ -15854,7 +15279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" ht="14.25" spans="1:4">
+    <row r="160" spans="1:4" ht="14.25">
       <c r="A160" s="14" t="s">
         <v>154</v>
       </c>
@@ -15868,7 +15293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="161" ht="14.25" spans="1:4">
+    <row r="161" spans="1:4" ht="14.25">
       <c r="A161" s="14" t="s">
         <v>154</v>
       </c>
@@ -15882,7 +15307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162" ht="14.25" spans="1:4">
+    <row r="162" spans="1:4" ht="14.25">
       <c r="A162" s="14" t="s">
         <v>154</v>
       </c>
@@ -15896,7 +15321,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" ht="14.25" spans="1:4">
+    <row r="163" spans="1:4" ht="14.25">
       <c r="A163" s="14" t="s">
         <v>154</v>
       </c>
@@ -15910,7 +15335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:4">
+    <row r="164" spans="1:4" ht="14.25">
       <c r="A164" s="14" t="s">
         <v>154</v>
       </c>
@@ -15924,7 +15349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" ht="14.25" spans="1:4">
+    <row r="165" spans="1:4" ht="14.25">
       <c r="A165" s="14" t="s">
         <v>154</v>
       </c>
@@ -15938,7 +15363,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" ht="14.25" spans="1:4">
+    <row r="166" spans="1:4" ht="14.25">
       <c r="A166" s="14" t="s">
         <v>154</v>
       </c>
@@ -15952,7 +15377,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" ht="14.25" spans="1:4">
+    <row r="167" spans="1:4" ht="14.25">
       <c r="A167" s="14" t="s">
         <v>154</v>
       </c>
@@ -15966,7 +15391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="168" ht="14.25" spans="1:4">
+    <row r="168" spans="1:4" ht="14.25">
       <c r="A168" s="14" t="s">
         <v>154</v>
       </c>
@@ -15980,7 +15405,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="169" ht="14.25" spans="1:4">
+    <row r="169" spans="1:4" ht="14.25">
       <c r="A169" s="14" t="s">
         <v>154</v>
       </c>
@@ -15994,7 +15419,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="170" ht="14.25" spans="1:4">
+    <row r="170" spans="1:4" ht="14.25">
       <c r="A170" s="14" t="s">
         <v>154</v>
       </c>
@@ -16008,7 +15433,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="171" ht="14.25" spans="1:4">
+    <row r="171" spans="1:4" ht="14.25">
       <c r="A171" s="14" t="s">
         <v>154</v>
       </c>
@@ -16022,7 +15447,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="172" ht="14.25" spans="1:4">
+    <row r="172" spans="1:4" ht="14.25">
       <c r="A172" s="14" t="s">
         <v>154</v>
       </c>
@@ -16036,7 +15461,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" ht="14.25" spans="1:4">
+    <row r="173" spans="1:4" ht="14.25">
       <c r="A173" s="14" t="s">
         <v>154</v>
       </c>
@@ -16050,7 +15475,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="174" ht="14.25" spans="1:4">
+    <row r="174" spans="1:4" ht="14.25">
       <c r="A174" s="14" t="s">
         <v>154</v>
       </c>
@@ -16064,7 +15489,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:4">
+    <row r="175" spans="1:4" ht="14.25">
       <c r="A175" s="14" t="s">
         <v>154</v>
       </c>
@@ -16078,7 +15503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" ht="14.25" spans="1:2">
+    <row r="178" spans="1:4" ht="14.25">
       <c r="A178" s="14" t="s">
         <v>194</v>
       </c>
@@ -16086,11 +15511,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:4">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
     </row>
-    <row r="180" ht="14.25" spans="1:4">
+    <row r="180" spans="1:4" ht="14.25">
       <c r="A180" s="14" t="s">
         <v>154</v>
       </c>
@@ -16104,7 +15529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="182" ht="14.25" spans="1:2">
+    <row r="182" spans="1:4" ht="14.25">
       <c r="A182" s="14" t="s">
         <v>194</v>
       </c>
@@ -16112,7 +15537,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="184" ht="14.25" spans="1:4">
+    <row r="184" spans="1:4" ht="14.25">
       <c r="A184" s="14" t="s">
         <v>154</v>
       </c>
@@ -16126,7 +15551,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" ht="14.25" spans="1:4">
+    <row r="185" spans="1:4" ht="14.25">
       <c r="A185" s="14" t="s">
         <v>154</v>
       </c>
@@ -16140,7 +15565,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:4">
+    <row r="186" spans="1:4" ht="14.25">
       <c r="A186" s="14" t="s">
         <v>154</v>
       </c>
@@ -16154,7 +15579,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:4">
+    <row r="187" spans="1:4" ht="14.25">
       <c r="A187" s="14" t="s">
         <v>154</v>
       </c>
@@ -16168,7 +15593,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:4">
+    <row r="188" spans="1:4" ht="14.25">
       <c r="A188" s="14" t="s">
         <v>154</v>
       </c>
@@ -16182,7 +15607,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:4">
+    <row r="189" spans="1:4" ht="14.25">
       <c r="A189" s="14" t="s">
         <v>154</v>
       </c>
@@ -16196,7 +15621,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="192" ht="14.25" spans="1:4">
+    <row r="192" spans="1:4" ht="14.25">
       <c r="A192" s="14" t="s">
         <v>194</v>
       </c>
@@ -16207,7 +15632,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="196" ht="14.25" spans="1:2">
+    <row r="196" spans="1:4" ht="14.25">
       <c r="A196" s="14" t="s">
         <v>147</v>
       </c>
@@ -16215,7 +15640,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" ht="14.25" spans="1:2">
+    <row r="197" spans="1:4" ht="14.25">
       <c r="A197" s="14" t="s">
         <v>194</v>
       </c>
@@ -16223,7 +15648,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="198" ht="14.25" spans="1:2">
+    <row r="198" spans="1:4" ht="14.25">
       <c r="A198" s="14" t="s">
         <v>218</v>
       </c>
@@ -16231,7 +15656,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:2">
+    <row r="201" spans="1:4" ht="14.25">
       <c r="A201" s="14" t="s">
         <v>147</v>
       </c>
@@ -16239,7 +15664,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="202" ht="14.25" spans="1:2">
+    <row r="202" spans="1:4" ht="14.25">
       <c r="A202" s="14" t="s">
         <v>149</v>
       </c>
@@ -16247,7 +15672,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" ht="14.25" spans="1:4">
+    <row r="203" spans="1:4" ht="14.25">
       <c r="A203" s="14"/>
       <c r="B203" s="16" t="s">
         <v>151</v>
@@ -16259,7 +15684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="204" ht="14.25" spans="1:4">
+    <row r="204" spans="1:4" ht="14.25">
       <c r="A204" s="14" t="s">
         <v>154</v>
       </c>
@@ -16273,7 +15698,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="205" ht="14.25" spans="1:4">
+    <row r="205" spans="1:4" ht="14.25">
       <c r="A205" s="14" t="s">
         <v>154</v>
       </c>
@@ -16287,7 +15712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" ht="14.25" spans="1:2">
+    <row r="206" spans="1:4" ht="14.25">
       <c r="A206" s="14" t="s">
         <v>194</v>
       </c>
@@ -16295,7 +15720,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="207" ht="14.25" spans="1:2">
+    <row r="207" spans="1:4" ht="14.25">
       <c r="A207" s="14" t="s">
         <v>218</v>
       </c>
@@ -16304,14 +15729,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -16320,8 +15744,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="2" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:74" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -16329,7 +15753,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="3" spans="1:74" ht="12.75" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>221</v>
       </c>
@@ -16340,7 +15764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="4" spans="1:74" ht="12.75" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
@@ -16438,7 +15862,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="5" spans="1:74" ht="12.75" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>233</v>
       </c>
@@ -16536,7 +15960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="6" spans="1:74" ht="12.75" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>233</v>
       </c>
@@ -16634,7 +16058,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="7" spans="1:74" ht="12.75" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>233</v>
       </c>
@@ -16732,7 +16156,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="12.75" customHeight="1" spans="2:33">
+    <row r="8" spans="1:74" ht="12.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>233</v>
       </c>
@@ -16830,7 +16254,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="9" spans="1:74" ht="12.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
         <v>233</v>
@@ -16970,12 +16394,12 @@
       <c r="BU9" s="15"/>
       <c r="BV9" s="15"/>
     </row>
-    <row r="10" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="10" spans="1:74" ht="12.75" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="11" spans="1:74" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -17055,7 +16479,7 @@
       <c r="BU11" s="17"/>
       <c r="BV11" s="17"/>
     </row>
-    <row r="12" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
         <v>256</v>
@@ -17167,7 +16591,7 @@
       <c r="BU12" s="17"/>
       <c r="BV12" s="17"/>
     </row>
-    <row r="13" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="13" spans="1:74" ht="12.75" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -17389,7 +16813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="14" spans="1:74" ht="12.75" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>234</v>
@@ -17611,7 +17035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="15" spans="1:74" ht="12.75" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>234</v>
@@ -17833,7 +17257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="16" spans="1:74" ht="12.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>234</v>
@@ -18055,7 +17479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="17" spans="1:74" ht="12.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
         <v>234</v>
@@ -18277,7 +17701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="18" spans="1:74" ht="12.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="12" t="s">
         <v>234</v>
@@ -18499,7 +17923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="19" spans="1:74" ht="12.75" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>234</v>
@@ -18721,11 +18145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="12.75" customHeight="1" spans="2:3">
+    <row r="20" spans="1:74" ht="12.75" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" customFormat="1" ht="12.75" customHeight="1" spans="1:7">
+    <row r="21" spans="1:74" ht="12.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -18738,7 +18162,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" customFormat="1" ht="12.75" customHeight="1" spans="1:74">
+    <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>258</v>
@@ -18820,7 +18244,7 @@
       <c r="BU22" s="17"/>
       <c r="BV22" s="17"/>
     </row>
-    <row r="23" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="23" spans="1:74" ht="12.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="11" t="s">
         <v>12</v>
@@ -18844,7 +18268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="24" spans="1:74" ht="12.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="12" t="s">
         <v>234</v>
@@ -18868,7 +18292,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="25" spans="1:74" ht="12.75" customHeight="1">
       <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
@@ -18891,7 +18315,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="26" spans="1:74" ht="12.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>234</v>
       </c>
@@ -18914,7 +18338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="27" spans="1:74" ht="12.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>234</v>
       </c>
@@ -18937,7 +18361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="12.75" customHeight="1" spans="2:10">
+    <row r="28" spans="1:74" ht="12.75" customHeight="1">
       <c r="B28" s="12" t="s">
         <v>234</v>
       </c>
@@ -18962,7 +18386,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" customFormat="1" ht="12.75" customHeight="1" spans="1:10">
+    <row r="29" spans="1:74" ht="12.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
         <v>234</v>
@@ -18992,7 +18416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="30" spans="1:74" ht="12.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>234</v>
@@ -19016,7 +18440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="31" spans="1:74" ht="12.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>234</v>
@@ -19040,7 +18464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="32" spans="1:74" ht="12.75" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>234</v>
@@ -19064,7 +18488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="12.75" customHeight="1" spans="1:8">
+    <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="12" t="s">
         <v>234</v>
@@ -19088,11 +18512,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="12.75" customHeight="1" spans="2:3">
+    <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>8</v>
       </c>
@@ -19100,7 +18524,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="B36" s="18" t="s">
         <v>262</v>
       </c>
@@ -19111,7 +18535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="B37" s="10" t="s">
         <v>222</v>
       </c>
@@ -19134,7 +18558,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>233</v>
       </c>
@@ -19157,7 +18581,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>233</v>
       </c>
@@ -19180,7 +18604,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>233</v>
       </c>
@@ -19203,7 +18627,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="B41" s="12" t="s">
         <v>233</v>
       </c>
@@ -19226,7 +18650,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="12.75" customHeight="1" spans="2:8">
+    <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="B42" s="12" t="s">
         <v>233</v>
       </c>
@@ -19249,7 +18673,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="12" t="s">
         <v>233</v>
@@ -19278,8 +18702,8 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="45" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="44" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>8</v>
       </c>
@@ -19287,14 +18711,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="12.75" customHeight="1" spans="2:4">
+    <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="B46" s="18" t="s">
         <v>266</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="B47" s="10" t="s">
         <v>222</v>
       </c>
@@ -19332,7 +18756,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="B48" s="12" t="s">
         <v>233</v>
       </c>
@@ -19370,7 +18794,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="49" spans="2:13" ht="12.75" customHeight="1">
       <c r="B49" s="12" t="s">
         <v>233</v>
       </c>
@@ -19408,7 +18832,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="50" spans="2:13" ht="12.75" customHeight="1">
       <c r="B50" s="12" t="s">
         <v>233</v>
       </c>
@@ -19446,7 +18870,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="12.75" customHeight="1" spans="2:13">
+    <row r="51" spans="2:13" ht="12.75" customHeight="1">
       <c r="B51" s="12" t="s">
         <v>233</v>
       </c>
@@ -19484,27 +18908,26 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="53" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="54" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="52" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="53" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="54" spans="2:13" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BW63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" customFormat="1" ht="14.25" spans="1:8">
+    <row r="2" spans="1:75" ht="14.25">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -19518,7 +18941,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:75" ht="14.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -19532,7 +18955,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:75" ht="14.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -19545,7 +18968,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:75" ht="14.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -19559,7 +18982,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:75" ht="14.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -19573,7 +18996,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:75" ht="14.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -19587,7 +19010,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:75" ht="14.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -19601,7 +19024,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="10" ht="14.25" spans="1:75">
+    <row r="10" spans="1:75" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -19793,7 +19216,7 @@
       <c r="BV11" s="17"/>
       <c r="BW11" s="17"/>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:75">
       <c r="A12" s="20"/>
       <c r="B12" s="11" t="s">
         <v>12</v>
@@ -20015,7 +19438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:75">
       <c r="A13" s="17"/>
       <c r="B13" s="12" t="s">
         <v>85</v>
@@ -20233,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:75">
       <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>85</v>
@@ -20451,7 +19874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:75">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>85</v>
@@ -20669,7 +20092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:75">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>85</v>
@@ -21323,7 +20746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
+    <row r="22" spans="1:74" ht="14.25">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -21336,7 +20759,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:74">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
         <v>128</v>
@@ -21353,7 +20776,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:74">
       <c r="A24" s="17"/>
       <c r="B24" s="11" t="s">
         <v>12</v>
@@ -21379,7 +20802,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:74">
       <c r="A25" s="17"/>
       <c r="B25" s="12" t="s">
         <v>85</v>
@@ -21403,7 +20826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:74">
       <c r="B26" s="12" t="s">
         <v>85</v>
       </c>
@@ -21426,7 +20849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:74">
       <c r="B27" s="12" t="s">
         <v>85</v>
       </c>
@@ -21449,7 +20872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:74">
       <c r="A28" s="15"/>
       <c r="B28" s="12" t="s">
         <v>85</v>
@@ -21473,7 +20896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="1:74">
       <c r="B29" s="12" t="s">
         <v>116</v>
       </c>
@@ -21498,7 +20921,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:74">
       <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>85</v>
@@ -21528,7 +20951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:74">
       <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>85</v>
@@ -21555,7 +20978,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:74">
       <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>85</v>
@@ -21582,7 +21005,7 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:33">
       <c r="A33" s="17"/>
       <c r="B33" s="12" t="s">
         <v>85</v>
@@ -21609,7 +21032,7 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:33">
       <c r="A34" s="17"/>
       <c r="B34" s="12" t="s">
         <v>116</v>
@@ -21636,7 +21059,7 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="37" ht="14.25" spans="1:33">
+    <row r="37" spans="1:33" ht="14.25">
       <c r="A37" s="9" t="s">
         <v>8</v>
       </c>
@@ -22310,7 +21733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:33" ht="14.25">
       <c r="A47" s="9" t="s">
         <v>8</v>
       </c>
@@ -22318,14 +21741,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:33">
       <c r="B48" s="18" t="s">
         <v>372</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="1:13">
       <c r="B49" s="10" t="s">
         <v>222</v>
       </c>
@@ -22348,7 +21771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="1:13">
       <c r="B50" s="12" t="s">
         <v>257</v>
       </c>
@@ -22371,7 +21794,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="1:13">
       <c r="B51" s="12" t="s">
         <v>365</v>
       </c>
@@ -22394,7 +21817,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="1:13">
       <c r="B52" s="12" t="s">
         <v>366</v>
       </c>
@@ -22417,7 +21840,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="1:13">
       <c r="B53" s="12" t="s">
         <v>371</v>
       </c>
@@ -22440,7 +21863,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="1:13">
       <c r="B54" s="12" t="s">
         <v>367</v>
       </c>
@@ -22463,7 +21886,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:2">
+    <row r="57" spans="1:13" ht="14.25">
       <c r="A57" s="9" t="s">
         <v>8</v>
       </c>
@@ -22471,14 +21894,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:13">
       <c r="B58" s="18" t="s">
         <v>373</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="1:13">
       <c r="B59" s="10" t="s">
         <v>222</v>
       </c>
@@ -22516,7 +21939,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13">
       <c r="B60" s="12" t="s">
         <v>257</v>
       </c>
@@ -22554,7 +21977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="1:13">
       <c r="B61" s="12" t="s">
         <v>365</v>
       </c>
@@ -22592,7 +22015,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="1:13">
       <c r="B62" s="12" t="s">
         <v>366</v>
       </c>
@@ -22630,7 +22053,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="1:13">
       <c r="B63" s="12" t="s">
         <v>371</v>
       </c>
@@ -22669,24 +22092,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -22694,7 +22116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14" t="s">
         <v>149</v>
       </c>
@@ -22702,7 +22124,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14"/>
       <c r="B4" s="16" t="s">
         <v>151</v>
@@ -22714,7 +22136,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>154</v>
       </c>
@@ -22728,7 +22150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>154</v>
       </c>
@@ -22742,7 +22164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="14" t="s">
         <v>154</v>
       </c>
@@ -22756,7 +22178,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>154</v>
       </c>
@@ -22770,7 +22192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>154</v>
       </c>
@@ -22784,7 +22206,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
@@ -22798,7 +22220,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>154</v>
       </c>
@@ -22812,7 +22234,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="14" t="s">
         <v>154</v>
       </c>
@@ -22826,7 +22248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="14" t="s">
         <v>154</v>
       </c>
@@ -22840,7 +22262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>154</v>
       </c>
@@ -22854,7 +22276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>154</v>
       </c>
@@ -22868,7 +22290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>154</v>
       </c>
@@ -22882,7 +22304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>154</v>
       </c>
@@ -22896,7 +22318,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="14" t="s">
         <v>154</v>
       </c>
@@ -22910,7 +22332,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>154</v>
       </c>
@@ -22924,7 +22346,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
@@ -22938,7 +22360,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:4">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>154</v>
       </c>
@@ -22952,7 +22374,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>154</v>
       </c>
@@ -22966,7 +22388,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="14" t="s">
         <v>194</v>
       </c>
@@ -22974,11 +22396,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" ht="14.25" spans="1:4">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="14" t="s">
         <v>154</v>
       </c>
@@ -22992,7 +22414,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="14" t="s">
         <v>194</v>
       </c>
@@ -23000,7 +22422,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="14" t="s">
         <v>154</v>
       </c>
@@ -23014,7 +22436,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="14" t="s">
         <v>154</v>
       </c>
@@ -23028,7 +22450,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:4">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="14" t="s">
         <v>154</v>
       </c>
@@ -23042,7 +22464,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:4">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="14" t="s">
         <v>154</v>
       </c>
@@ -23056,7 +22478,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:4">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="14" t="s">
         <v>154</v>
       </c>
@@ -23070,7 +22492,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:4">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="14" t="s">
         <v>154</v>
       </c>
@@ -23084,7 +22506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:4" ht="14.25">
       <c r="A40" s="14" t="s">
         <v>194</v>
       </c>
@@ -23092,7 +22514,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:2">
+    <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="14" t="s">
         <v>218</v>
       </c>
@@ -23100,7 +22522,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:2">
+    <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
@@ -23108,7 +22530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="14" t="s">
         <v>149</v>
       </c>
@@ -23116,7 +22538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:4">
+    <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="14"/>
       <c r="B48" s="16" t="s">
         <v>151</v>
@@ -23128,7 +22550,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:4">
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="14" t="s">
         <v>154</v>
       </c>
@@ -23142,7 +22564,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:4">
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="14" t="s">
         <v>154</v>
       </c>
@@ -23156,7 +22578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:4" ht="14.25">
       <c r="A51" s="14" t="s">
         <v>154</v>
       </c>
@@ -23170,7 +22592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:4">
+    <row r="52" spans="1:4" ht="14.25">
       <c r="A52" s="14" t="s">
         <v>154</v>
       </c>
@@ -23182,7 +22604,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:4">
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="14" t="s">
         <v>154</v>
       </c>
@@ -23196,7 +22618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:4">
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="14" t="s">
         <v>154</v>
       </c>
@@ -23208,7 +22630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:4">
+    <row r="55" spans="1:4" ht="14.25">
       <c r="A55" s="14" t="s">
         <v>154</v>
       </c>
@@ -23220,7 +22642,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:4">
+    <row r="56" spans="1:4" ht="14.25">
       <c r="A56" s="14" t="s">
         <v>154</v>
       </c>
@@ -23232,7 +22654,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:4">
+    <row r="57" spans="1:4" ht="14.25">
       <c r="A57" s="14" t="s">
         <v>154</v>
       </c>
@@ -23244,7 +22666,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:4">
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="14" t="s">
         <v>154</v>
       </c>
@@ -23256,7 +22678,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:4">
+    <row r="59" spans="1:4" ht="14.25">
       <c r="A59" s="14" t="s">
         <v>154</v>
       </c>
@@ -23268,7 +22690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:4">
+    <row r="60" spans="1:4" ht="14.25">
       <c r="A60" s="14" t="s">
         <v>154</v>
       </c>
@@ -23280,7 +22702,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:4">
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="14" t="s">
         <v>154</v>
       </c>
@@ -23292,7 +22714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:4">
+    <row r="62" spans="1:4" ht="14.25">
       <c r="A62" s="14" t="s">
         <v>154</v>
       </c>
@@ -23304,7 +22726,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:4">
+    <row r="63" spans="1:4" ht="14.25">
       <c r="A63" s="14" t="s">
         <v>154</v>
       </c>
@@ -23316,7 +22738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:4">
+    <row r="64" spans="1:4" ht="14.25">
       <c r="A64" s="14" t="s">
         <v>154</v>
       </c>
@@ -23328,7 +22750,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" ht="14.25" spans="1:4">
+    <row r="65" spans="1:4" ht="14.25">
       <c r="A65" s="14" t="s">
         <v>154</v>
       </c>
@@ -23340,7 +22762,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:4">
+    <row r="66" spans="1:4" ht="14.25">
       <c r="A66" s="14" t="s">
         <v>154</v>
       </c>
@@ -23352,7 +22774,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:4">
+    <row r="67" spans="1:4" ht="14.25">
       <c r="A67" s="14" t="s">
         <v>154</v>
       </c>
@@ -23364,7 +22786,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:2">
+    <row r="69" spans="1:4" ht="14.25">
       <c r="A69" s="14" t="s">
         <v>194</v>
       </c>
@@ -23372,11 +22794,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:4">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" ht="14.25" spans="1:4">
+    <row r="71" spans="1:4" ht="14.25">
       <c r="A71" s="14" t="s">
         <v>154</v>
       </c>
@@ -23388,7 +22810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" ht="14.25" spans="1:2">
+    <row r="73" spans="1:4" ht="14.25">
       <c r="A73" s="14" t="s">
         <v>194</v>
       </c>
@@ -23396,7 +22818,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" ht="14.25" spans="1:4">
+    <row r="75" spans="1:4" ht="14.25">
       <c r="A75" s="14" t="s">
         <v>154</v>
       </c>
@@ -23410,7 +22832,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" ht="14.25" spans="1:4">
+    <row r="76" spans="1:4" ht="14.25">
       <c r="A76" s="14" t="s">
         <v>154</v>
       </c>
@@ -23422,7 +22844,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" ht="14.25" spans="1:4">
+    <row r="77" spans="1:4" ht="14.25">
       <c r="A77" s="14" t="s">
         <v>154</v>
       </c>
@@ -23434,7 +22856,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" ht="14.25" spans="1:4">
+    <row r="78" spans="1:4" ht="14.25">
       <c r="A78" s="14" t="s">
         <v>154</v>
       </c>
@@ -23446,7 +22868,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" ht="14.25" spans="1:4">
+    <row r="79" spans="1:4" ht="14.25">
       <c r="A79" s="14" t="s">
         <v>154</v>
       </c>
@@ -23458,7 +22880,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:4">
+    <row r="80" spans="1:4" ht="14.25">
       <c r="A80" s="14" t="s">
         <v>154</v>
       </c>
@@ -23470,7 +22892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
+    <row r="83" spans="1:2" ht="14.25">
       <c r="A83" s="14" t="s">
         <v>194</v>
       </c>
@@ -23478,7 +22900,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
+    <row r="84" spans="1:2" ht="14.25">
       <c r="A84" s="14" t="s">
         <v>218</v>
       </c>
@@ -23486,7 +22908,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:2">
+    <row r="89" spans="1:2" ht="14.25">
       <c r="A89" s="14" t="s">
         <v>147</v>
       </c>
@@ -23494,7 +22916,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
+    <row r="90" spans="1:2" ht="14.25">
       <c r="A90" s="14" t="s">
         <v>194</v>
       </c>
@@ -23502,7 +22924,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
+    <row r="91" spans="1:2" ht="14.25">
       <c r="A91" s="14" t="s">
         <v>218</v>
       </c>
@@ -23510,7 +22932,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
+    <row r="93" spans="1:2" ht="14.25">
       <c r="A93" s="14" t="s">
         <v>147</v>
       </c>
@@ -23518,7 +22940,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
+    <row r="94" spans="1:2" ht="14.25">
       <c r="A94" s="14" t="s">
         <v>194</v>
       </c>
@@ -23526,7 +22948,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
+    <row r="95" spans="1:2" ht="14.25">
       <c r="A95" s="14" t="s">
         <v>218</v>
       </c>
@@ -23535,14 +22957,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV136"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -23551,8 +22972,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:74" ht="12.75" customHeight="1"/>
+    <row r="2" spans="1:74" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -23560,7 +22981,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" spans="2:4">
+    <row r="3" spans="1:74" ht="12.75" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>221</v>
       </c>
@@ -23571,7 +22992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" spans="2:33">
+    <row r="4" spans="1:74" ht="12.75" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
@@ -23669,7 +23090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" spans="2:33">
+    <row r="5" spans="1:74" ht="12.75" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>257</v>
       </c>
@@ -23767,7 +23188,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" spans="2:33">
+    <row r="6" spans="1:74" ht="12.75" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>365</v>
       </c>
@@ -23865,7 +23286,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="2:33">
+    <row r="7" spans="1:74" ht="12.75" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>366</v>
       </c>
@@ -23963,7 +23384,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="2:33">
+    <row r="8" spans="1:74" ht="12.75" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>371</v>
       </c>
@@ -24061,7 +23482,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:74">
+    <row r="9" spans="1:74" ht="12.75" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
         <v>367</v>
@@ -24201,12 +23622,12 @@
       <c r="BU9" s="15"/>
       <c r="BV9" s="15"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="2:4">
+    <row r="10" spans="1:74" ht="12.75" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:74">
+    <row r="11" spans="1:74" ht="12.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
@@ -24286,7 +23707,7 @@
       <c r="BU11" s="17"/>
       <c r="BV11" s="17"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:74">
+    <row r="12" spans="1:74" ht="12.75" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
         <v>256</v>
@@ -24398,7 +23819,7 @@
       <c r="BU12" s="17"/>
       <c r="BV12" s="17"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:74">
+    <row r="13" spans="1:74" ht="12.75" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -24620,7 +24041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:74">
+    <row r="14" spans="1:74" ht="12.75" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>234</v>
@@ -24842,7 +24263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:74">
+    <row r="15" spans="1:74" ht="12.75" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>234</v>
@@ -25064,7 +24485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:74">
+    <row r="16" spans="1:74" ht="12.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>234</v>
@@ -25286,7 +24707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:74">
+    <row r="17" spans="1:74" ht="12.75" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
         <v>234</v>
@@ -25508,7 +24929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:74">
+    <row r="18" spans="1:74" ht="12.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="12" t="s">
         <v>234</v>
@@ -25730,7 +25151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:74">
+    <row r="19" spans="1:74" ht="12.75" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>234</v>
@@ -25952,11 +25373,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="2:3">
+    <row r="20" spans="1:74" ht="12.75" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:7">
+    <row r="21" spans="1:74" ht="12.75" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -25969,7 +25390,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:74">
+    <row r="22" spans="1:74" ht="12.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>258</v>
@@ -26051,7 +25472,7 @@
       <c r="BU22" s="17"/>
       <c r="BV22" s="17"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:8">
+    <row r="23" spans="1:74" ht="12.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="11" t="s">
         <v>12</v>
@@ -26075,7 +25496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:8">
+    <row r="24" spans="1:74" ht="12.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="12" t="s">
         <v>234</v>
@@ -26099,7 +25520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" spans="2:8">
+    <row r="25" spans="1:74" ht="12.75" customHeight="1">
       <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
@@ -26122,7 +25543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" spans="2:8">
+    <row r="26" spans="1:74" ht="12.75" customHeight="1">
       <c r="B26" s="12" t="s">
         <v>234</v>
       </c>
@@ -26145,7 +25566,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" spans="2:8">
+    <row r="27" spans="1:74" ht="12.75" customHeight="1">
       <c r="B27" s="12" t="s">
         <v>234</v>
       </c>
@@ -26168,7 +25589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" spans="2:10">
+    <row r="28" spans="1:74" ht="12.75" customHeight="1">
       <c r="B28" s="12" t="s">
         <v>234</v>
       </c>
@@ -26193,7 +25614,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1" spans="1:10">
+    <row r="29" spans="1:74" ht="12.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
         <v>234</v>
@@ -26223,7 +25644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:8">
+    <row r="30" spans="1:74" ht="12.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>234</v>
@@ -26247,7 +25668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:8">
+    <row r="31" spans="1:74" ht="12.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>234</v>
@@ -26271,7 +25692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:8">
+    <row r="32" spans="1:74" ht="12.75" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>234</v>
@@ -26295,7 +25716,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:8">
+    <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="12" t="s">
         <v>234</v>
@@ -26319,11 +25740,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" spans="2:3">
+    <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:2">
+    <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>8</v>
       </c>
@@ -26331,7 +25752,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1" spans="2:4">
+    <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="B36" s="18" t="s">
         <v>262</v>
       </c>
@@ -26342,7 +25763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" spans="2:8">
+    <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="B37" s="10" t="s">
         <v>222</v>
       </c>
@@ -26365,7 +25786,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1" spans="2:8">
+    <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="B38" s="12" t="s">
         <v>257</v>
       </c>
@@ -26388,7 +25809,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1" spans="2:8">
+    <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="B39" s="12" t="s">
         <v>365</v>
       </c>
@@ -26411,7 +25832,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1" spans="2:8">
+    <row r="40" spans="1:13" ht="12.75" customHeight="1">
       <c r="B40" s="12" t="s">
         <v>366</v>
       </c>
@@ -26434,7 +25855,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" spans="2:8">
+    <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="B41" s="12" t="s">
         <v>371</v>
       </c>
@@ -26457,7 +25878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:13">
+    <row r="42" spans="1:13" ht="12.75" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
         <v>367</v>
@@ -26486,8 +25907,8 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1" spans="1:2">
+    <row r="43" spans="1:13" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>8</v>
       </c>
@@ -26495,14 +25916,14 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" spans="2:4">
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>266</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1" spans="2:13">
+    <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="B46" s="10" t="s">
         <v>222</v>
       </c>
@@ -26540,7 +25961,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" spans="2:13">
+    <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
@@ -26578,7 +25999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" spans="2:13">
+    <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="B48" s="12" t="s">
         <v>365</v>
       </c>
@@ -26616,7 +26037,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" spans="2:13">
+    <row r="49" spans="2:13" ht="12.75" customHeight="1">
       <c r="B49" s="12" t="s">
         <v>366</v>
       </c>
@@ -26654,7 +26075,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" spans="2:13">
+    <row r="50" spans="2:13" ht="12.75" customHeight="1">
       <c r="B50" s="12" t="s">
         <v>371</v>
       </c>
@@ -26692,22 +26113,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" spans="2:2">
+    <row r="51" spans="2:13" ht="12.75" customHeight="1">
       <c r="B51" s="15"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="52" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="53" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="54" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="55" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="56" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="57" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="58" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="59" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="60" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="61" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="62" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="63" spans="2:13" ht="12.75" customHeight="1"/>
+    <row r="64" spans="2:13" ht="12.75" customHeight="1"/>
     <row r="65" ht="12.75" customHeight="1"/>
     <row r="66" ht="12.75" customHeight="1"/>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -26781,24 +26202,23 @@
     <row r="135" ht="12.75" customHeight="1"/>
     <row r="136" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -26806,7 +26226,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="14"/>
       <c r="B3" s="16" t="s">
         <v>151</v>
@@ -26818,7 +26238,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="14" t="s">
         <v>154</v>
       </c>
@@ -26832,7 +26252,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>194</v>
       </c>
@@ -26843,7 +26263,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:2">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="14" t="s">
         <v>218</v>
       </c>
@@ -26851,7 +26271,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="14" t="s">
         <v>147</v>
       </c>
@@ -26859,7 +26279,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
@@ -26873,7 +26293,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="14" t="s">
         <v>194</v>
       </c>
@@ -26884,7 +26304,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="14" t="s">
         <v>218</v>
       </c>
@@ -26892,7 +26312,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="14" t="s">
         <v>147</v>
       </c>
@@ -26900,7 +26320,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="14" t="s">
         <v>154</v>
       </c>
@@ -26914,7 +26334,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="14" t="s">
         <v>194</v>
       </c>
@@ -26922,7 +26342,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="14" t="s">
         <v>218</v>
       </c>
@@ -26930,7 +26350,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="14" t="s">
         <v>147</v>
       </c>
@@ -26938,7 +26358,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="14" t="s">
         <v>154</v>
       </c>
@@ -26952,7 +26372,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="14" t="s">
         <v>194</v>
       </c>
@@ -26960,7 +26380,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="14" t="s">
         <v>218</v>
       </c>
@@ -26969,8 +26389,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>